--- a/FE2025May_Database_update.xlsx
+++ b/FE2025May_Database_update.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I119"/>
+  <dimension ref="A1:I120"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4850,6 +4850,43 @@
         <v>232</v>
       </c>
       <c r="I119" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>45906.49111111111</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>0x01,0x7c</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>0x00,0xa6,0x46,0x93,0x3c,0x23,0x3f,0x43,0xe8,0xa0,</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>0x00,0xE8</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>0xf</t>
+        </is>
+      </c>
+      <c r="F120" t="n">
+        <v>380</v>
+      </c>
+      <c r="G120" t="n">
+        <v>7.598631275147109e+23</v>
+      </c>
+      <c r="H120" t="n">
+        <v>232</v>
+      </c>
+      <c r="I120" t="n">
         <v>15</v>
       </c>
     </row>
@@ -4864,7 +4901,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I119"/>
+  <dimension ref="A1:I120"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9282,6 +9319,43 @@
         <v>244</v>
       </c>
       <c r="I119" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>45906.49111111111</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>0x00,0xa6,0x60,0x33,0x96,0x39,0x62,0xd0,0x5e,0x78,</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>0x00,0xF0</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F120" t="n">
+        <v>400</v>
+      </c>
+      <c r="G120" t="n">
+        <v>5.68432987514711e+23</v>
+      </c>
+      <c r="H120" t="n">
+        <v>240</v>
+      </c>
+      <c r="I120" t="n">
         <v>14</v>
       </c>
     </row>
@@ -9296,7 +9370,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I119"/>
+  <dimension ref="A1:I120"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13714,6 +13788,43 @@
         <v>88</v>
       </c>
       <c r="I119" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>45906.49111111111</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>0x00,0x6e</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>0x00,0x58</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F120" t="n">
+        <v>110</v>
+      </c>
+      <c r="G120" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H120" t="n">
+        <v>88</v>
+      </c>
+      <c r="I120" t="n">
         <v>3</v>
       </c>
     </row>
@@ -13728,7 +13839,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I119"/>
+  <dimension ref="A1:I120"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18149,6 +18260,43 @@
         <v>3</v>
       </c>
     </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>45906.49111111111</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>0x00,0x6e</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>0xd0,0x97,0x78,0x01,0x00,0x00,0x0e,0x3f,0x0c,0x0c,</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>0x00,0x55</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F120" t="n">
+        <v>110</v>
+      </c>
+      <c r="G120" t="n">
+        <v>9.85046333984776e+23</v>
+      </c>
+      <c r="H120" t="n">
+        <v>85</v>
+      </c>
+      <c r="I120" t="n">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/FE2025May_Database_update.xlsx
+++ b/FE2025May_Database_update.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I120"/>
+  <dimension ref="A1:I121"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4887,6 +4887,43 @@
         <v>232</v>
       </c>
       <c r="I120" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>45907.49217592592</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>0x01,0x7c</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>0x00,0xa6,0x46,0x93,0x3c,0x23,0x3f,0x43,0xe8,0xa0,</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>0x00,0xE4</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>0xf</t>
+        </is>
+      </c>
+      <c r="F121" t="n">
+        <v>380</v>
+      </c>
+      <c r="G121" t="n">
+        <v>7.598631275147109e+23</v>
+      </c>
+      <c r="H121" t="n">
+        <v>232</v>
+      </c>
+      <c r="I121" t="n">
         <v>15</v>
       </c>
     </row>
@@ -4901,7 +4938,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I120"/>
+  <dimension ref="A1:I121"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9356,6 +9393,43 @@
         <v>240</v>
       </c>
       <c r="I120" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>45907.49217592592</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>0x00,0xa6,0x60,0x33,0x96,0x39,0x62,0xd0,0x5e,0x78,</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>0x00,0xF0</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F121" t="n">
+        <v>400</v>
+      </c>
+      <c r="G121" t="n">
+        <v>5.68432987514711e+23</v>
+      </c>
+      <c r="H121" t="n">
+        <v>240</v>
+      </c>
+      <c r="I121" t="n">
         <v>14</v>
       </c>
     </row>
@@ -9370,7 +9444,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I120"/>
+  <dimension ref="A1:I121"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13825,6 +13899,43 @@
         <v>88</v>
       </c>
       <c r="I120" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>45907.49217592592</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>0x00,0x6e</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>0x00,0x58</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F121" t="n">
+        <v>110</v>
+      </c>
+      <c r="G121" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H121" t="n">
+        <v>88</v>
+      </c>
+      <c r="I121" t="n">
         <v>3</v>
       </c>
     </row>
@@ -13839,7 +13950,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I120"/>
+  <dimension ref="A1:I121"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18297,6 +18408,43 @@
         <v>3</v>
       </c>
     </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>45907.49217592592</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>0x00,0x6e</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>0xd0,0x97,0x78,0x01,0x00,0x00,0x0e,0x3f,0x0c,0x0c,</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>0x00,0x55</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F121" t="n">
+        <v>110</v>
+      </c>
+      <c r="G121" t="n">
+        <v>9.85046333984776e+23</v>
+      </c>
+      <c r="H121" t="n">
+        <v>85</v>
+      </c>
+      <c r="I121" t="n">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/FE2025May_Database_update.xlsx
+++ b/FE2025May_Database_update.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I121"/>
+  <dimension ref="A1:I122"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4924,6 +4924,43 @@
         <v>232</v>
       </c>
       <c r="I121" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>45908.49591435185</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>0x01,0x7c</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>0x00,0xa6,0x46,0x93,0x3c,0x23,0x3f,0x43,0xe8,0xa0,</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>0x00,0xE4</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>0xf</t>
+        </is>
+      </c>
+      <c r="F122" t="n">
+        <v>380</v>
+      </c>
+      <c r="G122" t="n">
+        <v>7.598631275147109e+23</v>
+      </c>
+      <c r="H122" t="n">
+        <v>232</v>
+      </c>
+      <c r="I122" t="n">
         <v>15</v>
       </c>
     </row>
@@ -4938,7 +4975,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I121"/>
+  <dimension ref="A1:I122"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9430,6 +9467,43 @@
         <v>240</v>
       </c>
       <c r="I121" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>45908.49591435185</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>0x00,0xa6,0x60,0x33,0x96,0x39,0x62,0xd0,0x5e,0x78,</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>0x00,0xF0</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F122" t="n">
+        <v>400</v>
+      </c>
+      <c r="G122" t="n">
+        <v>5.68432987514711e+23</v>
+      </c>
+      <c r="H122" t="n">
+        <v>240</v>
+      </c>
+      <c r="I122" t="n">
         <v>14</v>
       </c>
     </row>
@@ -9444,7 +9518,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I121"/>
+  <dimension ref="A1:I122"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13936,6 +14010,43 @@
         <v>88</v>
       </c>
       <c r="I121" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>45908.49591435185</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>0x00,0x6e</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>0x00,0x57</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F122" t="n">
+        <v>110</v>
+      </c>
+      <c r="G122" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H122" t="n">
+        <v>87</v>
+      </c>
+      <c r="I122" t="n">
         <v>3</v>
       </c>
     </row>
@@ -13950,7 +14061,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I121"/>
+  <dimension ref="A1:I122"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18445,6 +18556,43 @@
         <v>3</v>
       </c>
     </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>45908.49591435185</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>0x00,0x6e</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>0xd0,0x97,0x78,0x01,0x00,0x00,0x0e,0x3f,0x0c,0x0c,</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>0x00,0x54</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F122" t="n">
+        <v>110</v>
+      </c>
+      <c r="G122" t="n">
+        <v>9.85046333984776e+23</v>
+      </c>
+      <c r="H122" t="n">
+        <v>84</v>
+      </c>
+      <c r="I122" t="n">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/FE2025May_Database_update.xlsx
+++ b/FE2025May_Database_update.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I122"/>
+  <dimension ref="A1:I123"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4961,6 +4961,43 @@
         <v>232</v>
       </c>
       <c r="I122" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>45909.49241898148</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>0x01,0x7c</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>0x00,0xa6,0x46,0x93,0x3c,0x23,0x3f,0x43,0xe8,0xa0,</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>0x00,0xE4</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>0xf</t>
+        </is>
+      </c>
+      <c r="F123" t="n">
+        <v>380</v>
+      </c>
+      <c r="G123" t="n">
+        <v>7.598631275147109e+23</v>
+      </c>
+      <c r="H123" t="n">
+        <v>228</v>
+      </c>
+      <c r="I123" t="n">
         <v>15</v>
       </c>
     </row>
@@ -4975,7 +5012,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I122"/>
+  <dimension ref="A1:I123"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9504,6 +9541,43 @@
         <v>240</v>
       </c>
       <c r="I122" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>45909.49241898148</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>0x00,0xa6,0x60,0x33,0x96,0x39,0x62,0xd0,0x5e,0x78,</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>0x00,0xEC</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F123" t="n">
+        <v>400</v>
+      </c>
+      <c r="G123" t="n">
+        <v>5.68432987514711e+23</v>
+      </c>
+      <c r="H123" t="n">
+        <v>240</v>
+      </c>
+      <c r="I123" t="n">
         <v>14</v>
       </c>
     </row>
@@ -9518,7 +9592,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I122"/>
+  <dimension ref="A1:I123"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14047,6 +14121,43 @@
         <v>87</v>
       </c>
       <c r="I122" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>45909.49241898148</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>0x00,0x6e</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>0x00,0x57</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F123" t="n">
+        <v>110</v>
+      </c>
+      <c r="G123" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H123" t="n">
+        <v>87</v>
+      </c>
+      <c r="I123" t="n">
         <v>3</v>
       </c>
     </row>
@@ -14061,7 +14172,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I122"/>
+  <dimension ref="A1:I123"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18593,6 +18704,43 @@
         <v>3</v>
       </c>
     </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>45909.49241898148</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>0x00,0x6e</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>0xd0,0x97,0x78,0x01,0x00,0x00,0x0e,0x3f,0x0c,0x0c,</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>0x00,0x54</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F123" t="n">
+        <v>110</v>
+      </c>
+      <c r="G123" t="n">
+        <v>9.85046333984776e+23</v>
+      </c>
+      <c r="H123" t="n">
+        <v>84</v>
+      </c>
+      <c r="I123" t="n">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/FE2025May_Database_update.xlsx
+++ b/FE2025May_Database_update.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I123"/>
+  <dimension ref="A1:I126"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4998,6 +4998,117 @@
         <v>228</v>
       </c>
       <c r="I123" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>45910.49049768518</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>0x01,0x7c</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>0x00,0xa6,0x46,0x93,0x3c,0x23,0x3f,0x43,0xe8,0xa0,</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>0x00,0xE0</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>0xf</t>
+        </is>
+      </c>
+      <c r="F124" t="n">
+        <v>380</v>
+      </c>
+      <c r="G124" t="n">
+        <v>7.598631275147109e+23</v>
+      </c>
+      <c r="H124" t="n">
+        <v>228</v>
+      </c>
+      <c r="I124" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>45911.49237268518</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>0x01,0x7c</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>0x00,0xa6,0x46,0x93,0x3c,0x23,0x3f,0x43,0xe8,0xa0,</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>0x00,0xE0</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>0xf</t>
+        </is>
+      </c>
+      <c r="F125" t="n">
+        <v>380</v>
+      </c>
+      <c r="G125" t="n">
+        <v>7.598631275147109e+23</v>
+      </c>
+      <c r="H125" t="n">
+        <v>228</v>
+      </c>
+      <c r="I125" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>45912.49243055555</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>0x01,0x7c</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>0x00,0xa6,0x46,0x93,0x3c,0x23,0x3f,0x43,0xe8,0xa0,</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>0x00,0xE0</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>0xf</t>
+        </is>
+      </c>
+      <c r="F126" t="n">
+        <v>380</v>
+      </c>
+      <c r="G126" t="n">
+        <v>7.598631275147109e+23</v>
+      </c>
+      <c r="H126" t="n">
+        <v>228</v>
+      </c>
+      <c r="I126" t="n">
         <v>15</v>
       </c>
     </row>
@@ -5012,7 +5123,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I123"/>
+  <dimension ref="A1:I126"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9578,6 +9689,117 @@
         <v>240</v>
       </c>
       <c r="I123" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>45910.49049768518</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>0x00,0xa6,0x60,0x33,0x96,0x39,0x62,0xd0,0x5e,0x78,</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>0x00,0xEC</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F124" t="n">
+        <v>400</v>
+      </c>
+      <c r="G124" t="n">
+        <v>5.68432987514711e+23</v>
+      </c>
+      <c r="H124" t="n">
+        <v>240</v>
+      </c>
+      <c r="I124" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>45911.49237268518</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>0x00,0xa6,0x60,0x33,0x96,0x39,0x62,0xd0,0x5e,0x78,</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>0x00,0xEC</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F125" t="n">
+        <v>400</v>
+      </c>
+      <c r="G125" t="n">
+        <v>5.68432987514711e+23</v>
+      </c>
+      <c r="H125" t="n">
+        <v>236</v>
+      </c>
+      <c r="I125" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>45912.49243055555</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>0x00,0xa6,0x60,0x33,0x96,0x39,0x62,0xd0,0x5e,0x78,</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>0x00,0xE8</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F126" t="n">
+        <v>400</v>
+      </c>
+      <c r="G126" t="n">
+        <v>5.68432987514711e+23</v>
+      </c>
+      <c r="H126" t="n">
+        <v>236</v>
+      </c>
+      <c r="I126" t="n">
         <v>14</v>
       </c>
     </row>
@@ -9592,7 +9814,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I123"/>
+  <dimension ref="A1:I126"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14158,6 +14380,117 @@
         <v>87</v>
       </c>
       <c r="I123" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>45910.49049768518</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>0x00,0x6e</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>0x00,0x57</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F124" t="n">
+        <v>110</v>
+      </c>
+      <c r="G124" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H124" t="n">
+        <v>87</v>
+      </c>
+      <c r="I124" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>45911.49237268518</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>0x00,0x6e</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>0x00,0x57</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F125" t="n">
+        <v>110</v>
+      </c>
+      <c r="G125" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H125" t="n">
+        <v>87</v>
+      </c>
+      <c r="I125" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>45912.49243055555</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>0x00,0x6e</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>0x00,0x57</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F126" t="n">
+        <v>110</v>
+      </c>
+      <c r="G126" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H126" t="n">
+        <v>87</v>
+      </c>
+      <c r="I126" t="n">
         <v>3</v>
       </c>
     </row>
@@ -14172,7 +14505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I123"/>
+  <dimension ref="A1:I126"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18741,6 +19074,117 @@
         <v>3</v>
       </c>
     </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>45910.49049768518</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>0x00,0x6e</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>0xd0,0x97,0x78,0x01,0x00,0x00,0x0e,0x3f,0x0c,0x0c,</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>0x00,0x54</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F124" t="n">
+        <v>110</v>
+      </c>
+      <c r="G124" t="n">
+        <v>9.85046333984776e+23</v>
+      </c>
+      <c r="H124" t="n">
+        <v>84</v>
+      </c>
+      <c r="I124" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>45911.49237268518</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>0x00,0x6e</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>0xd0,0x97,0x78,0x01,0x00,0x00,0x0e,0x3f,0x0c,0x0c,</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>0x00,0x54</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F125" t="n">
+        <v>110</v>
+      </c>
+      <c r="G125" t="n">
+        <v>9.85046333984776e+23</v>
+      </c>
+      <c r="H125" t="n">
+        <v>84</v>
+      </c>
+      <c r="I125" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>45912.49243055555</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>0x00,0x6e</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>0xd0,0x97,0x78,0x01,0x00,0x00,0x0e,0x3f,0x0c,0x0c,</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>0x00,0x54</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F126" t="n">
+        <v>110</v>
+      </c>
+      <c r="G126" t="n">
+        <v>9.85046333984776e+23</v>
+      </c>
+      <c r="H126" t="n">
+        <v>84</v>
+      </c>
+      <c r="I126" t="n">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/FE2025May_Database_update.xlsx
+++ b/FE2025May_Database_update.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I126"/>
+  <dimension ref="A1:I127"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5109,6 +5109,43 @@
         <v>228</v>
       </c>
       <c r="I126" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>45913.49277777778</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>0x01,0x7c</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>0x00,0xa6,0x46,0x93,0x3c,0x23,0x3f,0x43,0xe8,0xa0,</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>0x00,0xDC</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>0xf</t>
+        </is>
+      </c>
+      <c r="F127" t="n">
+        <v>380</v>
+      </c>
+      <c r="G127" t="n">
+        <v>7.598631275147109e+23</v>
+      </c>
+      <c r="H127" t="n">
+        <v>224</v>
+      </c>
+      <c r="I127" t="n">
         <v>15</v>
       </c>
     </row>
@@ -5123,7 +5160,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I126"/>
+  <dimension ref="A1:I127"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9800,6 +9837,43 @@
         <v>236</v>
       </c>
       <c r="I126" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>45913.49277777778</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>0x00,0xa6,0x60,0x33,0x96,0x39,0x62,0xd0,0x5e,0x78,</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>0x00,0xE4</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F127" t="n">
+        <v>400</v>
+      </c>
+      <c r="G127" t="n">
+        <v>5.68432987514711e+23</v>
+      </c>
+      <c r="H127" t="n">
+        <v>236</v>
+      </c>
+      <c r="I127" t="n">
         <v>14</v>
       </c>
     </row>
@@ -9814,7 +9888,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I126"/>
+  <dimension ref="A1:I127"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14491,6 +14565,43 @@
         <v>87</v>
       </c>
       <c r="I126" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>45913.49277777778</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>0x00,0x6e</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>0x00,0x56</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F127" t="n">
+        <v>110</v>
+      </c>
+      <c r="G127" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H127" t="n">
+        <v>86</v>
+      </c>
+      <c r="I127" t="n">
         <v>3</v>
       </c>
     </row>
@@ -14505,7 +14616,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I126"/>
+  <dimension ref="A1:I127"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19185,6 +19296,43 @@
         <v>3</v>
       </c>
     </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>45913.49277777778</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>0x00,0x6e</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>0xd0,0x97,0x78,0x01,0x00,0x00,0x0e,0x3f,0x0c,0x0c,</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>0x00,0x53</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F127" t="n">
+        <v>110</v>
+      </c>
+      <c r="G127" t="n">
+        <v>9.85046333984776e+23</v>
+      </c>
+      <c r="H127" t="n">
+        <v>83</v>
+      </c>
+      <c r="I127" t="n">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/FE2025May_Database_update.xlsx
+++ b/FE2025May_Database_update.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I127"/>
+  <dimension ref="A1:I128"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5146,6 +5146,43 @@
         <v>224</v>
       </c>
       <c r="I127" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>45914.49199074074</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>0x01,0x7c</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>0x00,0xa6,0x46,0x93,0x3c,0x23,0x3f,0x43,0xe8,0xa0,</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>0x00,0xDC</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>0xf</t>
+        </is>
+      </c>
+      <c r="F128" t="n">
+        <v>380</v>
+      </c>
+      <c r="G128" t="n">
+        <v>7.598631275147109e+23</v>
+      </c>
+      <c r="H128" t="n">
+        <v>224</v>
+      </c>
+      <c r="I128" t="n">
         <v>15</v>
       </c>
     </row>
@@ -5160,7 +5197,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I127"/>
+  <dimension ref="A1:I128"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9874,6 +9911,43 @@
         <v>236</v>
       </c>
       <c r="I127" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>45914.49199074074</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>0x00,0xa6,0x60,0x33,0x96,0x39,0x62,0xd0,0x5e,0x78,</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>0x00,0xE4</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F128" t="n">
+        <v>400</v>
+      </c>
+      <c r="G128" t="n">
+        <v>5.68432987514711e+23</v>
+      </c>
+      <c r="H128" t="n">
+        <v>236</v>
+      </c>
+      <c r="I128" t="n">
         <v>14</v>
       </c>
     </row>
@@ -9888,7 +9962,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I127"/>
+  <dimension ref="A1:I128"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14602,6 +14676,43 @@
         <v>86</v>
       </c>
       <c r="I127" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>45914.49199074074</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>0x00,0x6e</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>0x00,0x56</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F128" t="n">
+        <v>110</v>
+      </c>
+      <c r="G128" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H128" t="n">
+        <v>86</v>
+      </c>
+      <c r="I128" t="n">
         <v>3</v>
       </c>
     </row>
@@ -14616,7 +14727,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I127"/>
+  <dimension ref="A1:I128"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19333,6 +19444,43 @@
         <v>3</v>
       </c>
     </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>45914.49199074074</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>0x00,0x6e</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>0xd0,0x97,0x78,0x01,0x00,0x00,0x0e,0x3f,0x0c,0x0c,</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>0x00,0x53</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F128" t="n">
+        <v>110</v>
+      </c>
+      <c r="G128" t="n">
+        <v>9.85046333984776e+23</v>
+      </c>
+      <c r="H128" t="n">
+        <v>83</v>
+      </c>
+      <c r="I128" t="n">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/FE2025May_Database_update.xlsx
+++ b/FE2025May_Database_update.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I128"/>
+  <dimension ref="A1:I129"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5183,6 +5183,43 @@
         <v>224</v>
       </c>
       <c r="I128" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
+        <v>45915.49101851852</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>0x01,0x7c</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>0x00,0xa6,0x46,0x93,0x3c,0x23,0x3f,0x43,0xe8,0xa0,</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>0x00,0xDC</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>0xf</t>
+        </is>
+      </c>
+      <c r="F129" t="n">
+        <v>380</v>
+      </c>
+      <c r="G129" t="n">
+        <v>7.598631275147109e+23</v>
+      </c>
+      <c r="H129" t="n">
+        <v>224</v>
+      </c>
+      <c r="I129" t="n">
         <v>15</v>
       </c>
     </row>
@@ -5197,7 +5234,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I128"/>
+  <dimension ref="A1:I129"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9948,6 +9985,43 @@
         <v>236</v>
       </c>
       <c r="I128" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
+        <v>45915.49101851852</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>0x00,0xa6,0x60,0x33,0x96,0x39,0x62,0xd0,0x5e,0x78,</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>0x00,0xE0</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F129" t="n">
+        <v>400</v>
+      </c>
+      <c r="G129" t="n">
+        <v>5.68432987514711e+23</v>
+      </c>
+      <c r="H129" t="n">
+        <v>232</v>
+      </c>
+      <c r="I129" t="n">
         <v>14</v>
       </c>
     </row>
@@ -9962,7 +10036,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I128"/>
+  <dimension ref="A1:I129"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14713,6 +14787,43 @@
         <v>86</v>
       </c>
       <c r="I128" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
+        <v>45915.49101851852</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>0x00,0x6e</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>0x00,0x56</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F129" t="n">
+        <v>110</v>
+      </c>
+      <c r="G129" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H129" t="n">
+        <v>86</v>
+      </c>
+      <c r="I129" t="n">
         <v>3</v>
       </c>
     </row>
@@ -14727,7 +14838,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I128"/>
+  <dimension ref="A1:I129"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19481,6 +19592,43 @@
         <v>3</v>
       </c>
     </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
+        <v>45915.49101851852</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>0x00,0x6e</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>0xd0,0x97,0x78,0x01,0x00,0x00,0x0e,0x3f,0x0c,0x0c,</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>0x00,0x53</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F129" t="n">
+        <v>110</v>
+      </c>
+      <c r="G129" t="n">
+        <v>9.85046333984776e+23</v>
+      </c>
+      <c r="H129" t="n">
+        <v>83</v>
+      </c>
+      <c r="I129" t="n">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/FE2025May_Database_update.xlsx
+++ b/FE2025May_Database_update.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I129"/>
+  <dimension ref="A1:I130"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5220,6 +5220,43 @@
         <v>224</v>
       </c>
       <c r="I129" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
+        <v>45916.49175925926</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>0x01,0x7c</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>0x00,0xa6,0x46,0x93,0x3c,0x23,0x3f,0x43,0xe8,0xa0,</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>0x00,0xDC</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>0xf</t>
+        </is>
+      </c>
+      <c r="F130" t="n">
+        <v>380</v>
+      </c>
+      <c r="G130" t="n">
+        <v>7.598631275147109e+23</v>
+      </c>
+      <c r="H130" t="n">
+        <v>224</v>
+      </c>
+      <c r="I130" t="n">
         <v>15</v>
       </c>
     </row>
@@ -5234,7 +5271,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I129"/>
+  <dimension ref="A1:I130"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10022,6 +10059,43 @@
         <v>232</v>
       </c>
       <c r="I129" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
+        <v>45916.49175925926</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>0x00,0xa6,0x60,0x33,0x96,0x39,0x62,0xd0,0x5e,0x78,</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>0x00,0xE0</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F130" t="n">
+        <v>400</v>
+      </c>
+      <c r="G130" t="n">
+        <v>5.68432987514711e+23</v>
+      </c>
+      <c r="H130" t="n">
+        <v>232</v>
+      </c>
+      <c r="I130" t="n">
         <v>14</v>
       </c>
     </row>
@@ -10036,7 +10110,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I129"/>
+  <dimension ref="A1:I130"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14824,6 +14898,43 @@
         <v>86</v>
       </c>
       <c r="I129" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
+        <v>45916.49175925926</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>0x00,0x6e</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>0x00,0x56</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F130" t="n">
+        <v>110</v>
+      </c>
+      <c r="G130" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H130" t="n">
+        <v>86</v>
+      </c>
+      <c r="I130" t="n">
         <v>3</v>
       </c>
     </row>
@@ -14838,7 +14949,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I129"/>
+  <dimension ref="A1:I130"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19629,6 +19740,43 @@
         <v>3</v>
       </c>
     </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
+        <v>45916.49175925926</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>0x00,0x6e</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>0xd0,0x97,0x78,0x01,0x00,0x00,0x0e,0x3f,0x0c,0x0c,</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>0x00,0x53</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F130" t="n">
+        <v>110</v>
+      </c>
+      <c r="G130" t="n">
+        <v>9.85046333984776e+23</v>
+      </c>
+      <c r="H130" t="n">
+        <v>83</v>
+      </c>
+      <c r="I130" t="n">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/FE2025May_Database_update.xlsx
+++ b/FE2025May_Database_update.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I130"/>
+  <dimension ref="A1:I131"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5257,6 +5257,43 @@
         <v>224</v>
       </c>
       <c r="I130" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="n">
+        <v>45917.49130787037</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>0x01,0x7c</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>0x00,0xa6,0x46,0x93,0x3c,0x23,0x3f,0x43,0xe8,0xa0,</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>0x00,0xD8</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>0xf</t>
+        </is>
+      </c>
+      <c r="F131" t="n">
+        <v>380</v>
+      </c>
+      <c r="G131" t="n">
+        <v>7.598631275147109e+23</v>
+      </c>
+      <c r="H131" t="n">
+        <v>220</v>
+      </c>
+      <c r="I131" t="n">
         <v>15</v>
       </c>
     </row>
@@ -5271,7 +5308,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I130"/>
+  <dimension ref="A1:I131"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10096,6 +10133,43 @@
         <v>232</v>
       </c>
       <c r="I130" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="n">
+        <v>45917.49130787037</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>0x00,0xa6,0x60,0x33,0x96,0x39,0x62,0xd0,0x5e,0x78,</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>0x00,0xE0</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F131" t="n">
+        <v>400</v>
+      </c>
+      <c r="G131" t="n">
+        <v>5.68432987514711e+23</v>
+      </c>
+      <c r="H131" t="n">
+        <v>232</v>
+      </c>
+      <c r="I131" t="n">
         <v>14</v>
       </c>
     </row>
@@ -10110,7 +10184,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I130"/>
+  <dimension ref="A1:I131"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14935,6 +15009,43 @@
         <v>86</v>
       </c>
       <c r="I130" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="n">
+        <v>45917.49130787037</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>0x00,0x6e</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>0x00,0x56</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F131" t="n">
+        <v>110</v>
+      </c>
+      <c r="G131" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H131" t="n">
+        <v>86</v>
+      </c>
+      <c r="I131" t="n">
         <v>3</v>
       </c>
     </row>
@@ -14949,7 +15060,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I130"/>
+  <dimension ref="A1:I131"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19777,6 +19888,43 @@
         <v>3</v>
       </c>
     </row>
+    <row r="131">
+      <c r="A131" s="2" t="n">
+        <v>45917.49130787037</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>0x00,0x6e</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>0xd0,0x97,0x78,0x01,0x00,0x00,0x0e,0x3f,0x0c,0x0c,</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>0x00,0x53</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F131" t="n">
+        <v>110</v>
+      </c>
+      <c r="G131" t="n">
+        <v>9.85046333984776e+23</v>
+      </c>
+      <c r="H131" t="n">
+        <v>83</v>
+      </c>
+      <c r="I131" t="n">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/FE2025May_Database_update.xlsx
+++ b/FE2025May_Database_update.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I131"/>
+  <dimension ref="A1:I132"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5294,6 +5294,43 @@
         <v>220</v>
       </c>
       <c r="I131" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="n">
+        <v>45918.49517361111</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>0x01,0x7c</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>0x00,0xa6,0x46,0x93,0x3c,0x23,0x3f,0x43,0xe8,0xa0,</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>0x00,0xD8</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>0xf</t>
+        </is>
+      </c>
+      <c r="F132" t="n">
+        <v>380</v>
+      </c>
+      <c r="G132" t="n">
+        <v>7.598631275147109e+23</v>
+      </c>
+      <c r="H132" t="n">
+        <v>220</v>
+      </c>
+      <c r="I132" t="n">
         <v>15</v>
       </c>
     </row>
@@ -5308,7 +5345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I131"/>
+  <dimension ref="A1:I132"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10170,6 +10207,43 @@
         <v>232</v>
       </c>
       <c r="I131" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="n">
+        <v>45918.49517361111</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>0x00,0xa6,0x60,0x33,0x96,0x39,0x62,0xd0,0x5e,0x78,</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>0x00,0xDC</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F132" t="n">
+        <v>400</v>
+      </c>
+      <c r="G132" t="n">
+        <v>5.68432987514711e+23</v>
+      </c>
+      <c r="H132" t="n">
+        <v>228</v>
+      </c>
+      <c r="I132" t="n">
         <v>14</v>
       </c>
     </row>
@@ -10184,7 +10258,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I131"/>
+  <dimension ref="A1:I132"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15046,6 +15120,43 @@
         <v>86</v>
       </c>
       <c r="I131" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="n">
+        <v>45918.49517361111</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>0x00,0x6e</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>0x00,0x56</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F132" t="n">
+        <v>110</v>
+      </c>
+      <c r="G132" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H132" t="n">
+        <v>86</v>
+      </c>
+      <c r="I132" t="n">
         <v>3</v>
       </c>
     </row>
@@ -15060,7 +15171,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I131"/>
+  <dimension ref="A1:I132"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19925,6 +20036,43 @@
         <v>3</v>
       </c>
     </row>
+    <row r="132">
+      <c r="A132" s="2" t="n">
+        <v>45918.49517361111</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>0x00,0x6e</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>0xd0,0x97,0x78,0x01,0x00,0x00,0x0e,0x3f,0x0c,0x0c,</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>0x00,0x52</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F132" t="n">
+        <v>110</v>
+      </c>
+      <c r="G132" t="n">
+        <v>9.85046333984776e+23</v>
+      </c>
+      <c r="H132" t="n">
+        <v>82</v>
+      </c>
+      <c r="I132" t="n">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/FE2025May_Database_update.xlsx
+++ b/FE2025May_Database_update.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I132"/>
+  <dimension ref="A1:I133"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5331,6 +5331,43 @@
         <v>220</v>
       </c>
       <c r="I132" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="n">
+        <v>45919.49053240741</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>0x01,0x7c</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>0x00,0xa6,0x46,0x93,0x3c,0x23,0x3f,0x43,0xe8,0xa0,</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>0x00,0xD8</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>0xf</t>
+        </is>
+      </c>
+      <c r="F133" t="n">
+        <v>380</v>
+      </c>
+      <c r="G133" t="n">
+        <v>7.598631275147109e+23</v>
+      </c>
+      <c r="H133" t="n">
+        <v>220</v>
+      </c>
+      <c r="I133" t="n">
         <v>15</v>
       </c>
     </row>
@@ -5345,7 +5382,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I132"/>
+  <dimension ref="A1:I133"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10244,6 +10281,43 @@
         <v>228</v>
       </c>
       <c r="I132" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="n">
+        <v>45919.49053240741</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>0x00,0xa6,0x60,0x33,0x96,0x39,0x62,0xd0,0x5e,0x78,</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>0x00,0xDC</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F133" t="n">
+        <v>400</v>
+      </c>
+      <c r="G133" t="n">
+        <v>5.68432987514711e+23</v>
+      </c>
+      <c r="H133" t="n">
+        <v>228</v>
+      </c>
+      <c r="I133" t="n">
         <v>14</v>
       </c>
     </row>
@@ -10258,7 +10332,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I132"/>
+  <dimension ref="A1:I133"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15157,6 +15231,43 @@
         <v>86</v>
       </c>
       <c r="I132" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="n">
+        <v>45919.49053240741</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>0x00,0x6e</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>0x00,0x55</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F133" t="n">
+        <v>110</v>
+      </c>
+      <c r="G133" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H133" t="n">
+        <v>85</v>
+      </c>
+      <c r="I133" t="n">
         <v>3</v>
       </c>
     </row>
@@ -15171,7 +15282,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I132"/>
+  <dimension ref="A1:I133"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20073,6 +20184,43 @@
         <v>3</v>
       </c>
     </row>
+    <row r="133">
+      <c r="A133" s="2" t="n">
+        <v>45919.49053240741</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>0x00,0x6e</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>0xd0,0x97,0x78,0x01,0x00,0x00,0x0e,0x3f,0x0c,0x0c,</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>0x00,0x52</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F133" t="n">
+        <v>110</v>
+      </c>
+      <c r="G133" t="n">
+        <v>9.85046333984776e+23</v>
+      </c>
+      <c r="H133" t="n">
+        <v>82</v>
+      </c>
+      <c r="I133" t="n">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/FE2025May_Database_update.xlsx
+++ b/FE2025May_Database_update.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I133"/>
+  <dimension ref="A1:I134"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5368,6 +5368,43 @@
         <v>220</v>
       </c>
       <c r="I133" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="n">
+        <v>45920.49253472222</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>0x01,0x7c</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>0x00,0xa6,0x46,0x93,0x3c,0x23,0x3f,0x43,0xe8,0xa0,</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>0x00,0xD4</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>0xf</t>
+        </is>
+      </c>
+      <c r="F134" t="n">
+        <v>380</v>
+      </c>
+      <c r="G134" t="n">
+        <v>7.598631275147109e+23</v>
+      </c>
+      <c r="H134" t="n">
+        <v>220</v>
+      </c>
+      <c r="I134" t="n">
         <v>15</v>
       </c>
     </row>
@@ -5382,7 +5419,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I133"/>
+  <dimension ref="A1:I134"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10318,6 +10355,43 @@
         <v>228</v>
       </c>
       <c r="I133" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="n">
+        <v>45920.49253472222</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>0x00,0xa6,0x60,0x33,0x96,0x39,0x62,0xd0,0x5e,0x78,</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>0x00,0xDC</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F134" t="n">
+        <v>400</v>
+      </c>
+      <c r="G134" t="n">
+        <v>5.68432987514711e+23</v>
+      </c>
+      <c r="H134" t="n">
+        <v>228</v>
+      </c>
+      <c r="I134" t="n">
         <v>14</v>
       </c>
     </row>
@@ -10332,7 +10406,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I133"/>
+  <dimension ref="A1:I134"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15268,6 +15342,43 @@
         <v>85</v>
       </c>
       <c r="I133" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="n">
+        <v>45920.49253472222</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>0x00,0x6e</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>0x00,0x55</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F134" t="n">
+        <v>110</v>
+      </c>
+      <c r="G134" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H134" t="n">
+        <v>85</v>
+      </c>
+      <c r="I134" t="n">
         <v>3</v>
       </c>
     </row>
@@ -15282,7 +15393,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I133"/>
+  <dimension ref="A1:I134"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20221,6 +20332,43 @@
         <v>3</v>
       </c>
     </row>
+    <row r="134">
+      <c r="A134" s="2" t="n">
+        <v>45920.49253472222</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>0x00,0x6e</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>0xd0,0x97,0x78,0x01,0x00,0x00,0x0e,0x3f,0x0c,0x0c,</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>0x00,0x52</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F134" t="n">
+        <v>110</v>
+      </c>
+      <c r="G134" t="n">
+        <v>9.85046333984776e+23</v>
+      </c>
+      <c r="H134" t="n">
+        <v>82</v>
+      </c>
+      <c r="I134" t="n">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/FE2025May_Database_update.xlsx
+++ b/FE2025May_Database_update.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I134"/>
+  <dimension ref="A1:I135"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5405,6 +5405,43 @@
         <v>220</v>
       </c>
       <c r="I134" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="n">
+        <v>45921.4962037037</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>0x01,0x7c</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>0x00,0xa6,0x46,0x93,0x3c,0x23,0x3f,0x43,0xe8,0xa0,</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>0x00,0xD4</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>0xf</t>
+        </is>
+      </c>
+      <c r="F135" t="n">
+        <v>380</v>
+      </c>
+      <c r="G135" t="n">
+        <v>7.598631275147109e+23</v>
+      </c>
+      <c r="H135" t="n">
+        <v>216</v>
+      </c>
+      <c r="I135" t="n">
         <v>15</v>
       </c>
     </row>
@@ -5419,7 +5456,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I134"/>
+  <dimension ref="A1:I135"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10392,6 +10429,43 @@
         <v>228</v>
       </c>
       <c r="I134" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="n">
+        <v>45921.4962037037</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>0x00,0xa6,0x60,0x33,0x96,0x39,0x62,0xd0,0x5e,0x78,</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>0x00,0xD8</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F135" t="n">
+        <v>400</v>
+      </c>
+      <c r="G135" t="n">
+        <v>5.68432987514711e+23</v>
+      </c>
+      <c r="H135" t="n">
+        <v>224</v>
+      </c>
+      <c r="I135" t="n">
         <v>14</v>
       </c>
     </row>
@@ -10406,7 +10480,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I134"/>
+  <dimension ref="A1:I135"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15379,6 +15453,43 @@
         <v>85</v>
       </c>
       <c r="I134" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="n">
+        <v>45921.4962037037</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>0x00,0x6e</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>0x00,0x55</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F135" t="n">
+        <v>110</v>
+      </c>
+      <c r="G135" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H135" t="n">
+        <v>85</v>
+      </c>
+      <c r="I135" t="n">
         <v>3</v>
       </c>
     </row>
@@ -15393,7 +15504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I134"/>
+  <dimension ref="A1:I135"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20369,6 +20480,43 @@
         <v>3</v>
       </c>
     </row>
+    <row r="135">
+      <c r="A135" s="2" t="n">
+        <v>45921.4962037037</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>0x00,0x6e</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>0xd0,0x97,0x78,0x01,0x00,0x00,0x0e,0x3f,0x0c,0x0c,</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>0x00,0x52</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F135" t="n">
+        <v>110</v>
+      </c>
+      <c r="G135" t="n">
+        <v>9.85046333984776e+23</v>
+      </c>
+      <c r="H135" t="n">
+        <v>82</v>
+      </c>
+      <c r="I135" t="n">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/FE2025May_Database_update.xlsx
+++ b/FE2025May_Database_update.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I135"/>
+  <dimension ref="A1:I136"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5442,6 +5442,43 @@
         <v>216</v>
       </c>
       <c r="I135" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="n">
+        <v>45922.49196759259</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>0x01,0x7c</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>0x00,0xa6,0x46,0x93,0x3c,0x23,0x3f,0x43,0xe8,0xa0,</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>0x00,0xD4</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>0xf</t>
+        </is>
+      </c>
+      <c r="F136" t="n">
+        <v>380</v>
+      </c>
+      <c r="G136" t="n">
+        <v>7.598631275147109e+23</v>
+      </c>
+      <c r="H136" t="n">
+        <v>216</v>
+      </c>
+      <c r="I136" t="n">
         <v>15</v>
       </c>
     </row>
@@ -5456,7 +5493,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I135"/>
+  <dimension ref="A1:I136"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10466,6 +10503,43 @@
         <v>224</v>
       </c>
       <c r="I135" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="n">
+        <v>45922.49196759259</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>0x00,0xa6,0x60,0x33,0x96,0x39,0x62,0xd0,0x5e,0x78,</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>0x00,0xD8</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F136" t="n">
+        <v>400</v>
+      </c>
+      <c r="G136" t="n">
+        <v>5.68432987514711e+23</v>
+      </c>
+      <c r="H136" t="n">
+        <v>224</v>
+      </c>
+      <c r="I136" t="n">
         <v>14</v>
       </c>
     </row>
@@ -10480,7 +10554,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I135"/>
+  <dimension ref="A1:I136"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15490,6 +15564,43 @@
         <v>85</v>
       </c>
       <c r="I135" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="n">
+        <v>45922.49196759259</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>0x00,0x6e</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>0x00,0x55</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F136" t="n">
+        <v>110</v>
+      </c>
+      <c r="G136" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H136" t="n">
+        <v>85</v>
+      </c>
+      <c r="I136" t="n">
         <v>3</v>
       </c>
     </row>
@@ -15504,7 +15615,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I135"/>
+  <dimension ref="A1:I136"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20517,6 +20628,43 @@
         <v>3</v>
       </c>
     </row>
+    <row r="136">
+      <c r="A136" s="2" t="n">
+        <v>45922.49196759259</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>0x00,0x6e</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>0xd0,0x97,0x78,0x01,0x00,0x00,0x0e,0x3f,0x0c,0x0c,</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>0x00,0x52</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F136" t="n">
+        <v>110</v>
+      </c>
+      <c r="G136" t="n">
+        <v>9.85046333984776e+23</v>
+      </c>
+      <c r="H136" t="n">
+        <v>82</v>
+      </c>
+      <c r="I136" t="n">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/FE2025May_Database_update.xlsx
+++ b/FE2025May_Database_update.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I136"/>
+  <dimension ref="A1:I137"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5479,6 +5479,43 @@
         <v>216</v>
       </c>
       <c r="I136" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="n">
+        <v>45923.49178240741</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>0x01,0x7c</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>0x00,0xa6,0x46,0x93,0x3c,0x23,0x3f,0x43,0xe8,0xa0,</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>0x00,0xD4</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>0xf</t>
+        </is>
+      </c>
+      <c r="F137" t="n">
+        <v>380</v>
+      </c>
+      <c r="G137" t="n">
+        <v>7.598631275147109e+23</v>
+      </c>
+      <c r="H137" t="n">
+        <v>216</v>
+      </c>
+      <c r="I137" t="n">
         <v>15</v>
       </c>
     </row>
@@ -5493,7 +5530,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I136"/>
+  <dimension ref="A1:I137"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10540,6 +10577,43 @@
         <v>224</v>
       </c>
       <c r="I136" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="n">
+        <v>45923.49178240741</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>0x00,0xa6,0x60,0x33,0x96,0x39,0x62,0xd0,0x5e,0x78,</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>0x00,0xD8</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F137" t="n">
+        <v>400</v>
+      </c>
+      <c r="G137" t="n">
+        <v>5.68432987514711e+23</v>
+      </c>
+      <c r="H137" t="n">
+        <v>224</v>
+      </c>
+      <c r="I137" t="n">
         <v>14</v>
       </c>
     </row>
@@ -10554,7 +10628,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I136"/>
+  <dimension ref="A1:I137"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15601,6 +15675,43 @@
         <v>85</v>
       </c>
       <c r="I136" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="n">
+        <v>45923.49178240741</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>0x00,0x6e</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>0x00,0x55</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F137" t="n">
+        <v>110</v>
+      </c>
+      <c r="G137" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H137" t="n">
+        <v>85</v>
+      </c>
+      <c r="I137" t="n">
         <v>3</v>
       </c>
     </row>
@@ -15615,7 +15726,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I136"/>
+  <dimension ref="A1:I137"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20665,6 +20776,43 @@
         <v>3</v>
       </c>
     </row>
+    <row r="137">
+      <c r="A137" s="2" t="n">
+        <v>45923.49178240741</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>0x00,0x6e</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>0xd0,0x97,0x78,0x01,0x00,0x00,0x0e,0x3f,0x0c,0x0c,</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>0x00,0x51</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F137" t="n">
+        <v>110</v>
+      </c>
+      <c r="G137" t="n">
+        <v>9.85046333984776e+23</v>
+      </c>
+      <c r="H137" t="n">
+        <v>81</v>
+      </c>
+      <c r="I137" t="n">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/FE2025May_Database_update.xlsx
+++ b/FE2025May_Database_update.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I137"/>
+  <dimension ref="A1:I138"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5516,6 +5516,43 @@
         <v>216</v>
       </c>
       <c r="I137" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="n">
+        <v>45924.49113425926</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>0x01,0x7c</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>0x00,0xa6,0x46,0x93,0x3c,0x23,0x3f,0x43,0xe8,0xa0,</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>0x00,0xD0</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>0xf</t>
+        </is>
+      </c>
+      <c r="F138" t="n">
+        <v>380</v>
+      </c>
+      <c r="G138" t="n">
+        <v>7.598631275147109e+23</v>
+      </c>
+      <c r="H138" t="n">
+        <v>216</v>
+      </c>
+      <c r="I138" t="n">
         <v>15</v>
       </c>
     </row>
@@ -5530,7 +5567,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I137"/>
+  <dimension ref="A1:I138"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10614,6 +10651,43 @@
         <v>224</v>
       </c>
       <c r="I137" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="n">
+        <v>45924.49113425926</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>0x00,0xa6,0x60,0x33,0x96,0x39,0x62,0xd0,0x5e,0x78,</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>0x00,0xD4</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F138" t="n">
+        <v>400</v>
+      </c>
+      <c r="G138" t="n">
+        <v>5.68432987514711e+23</v>
+      </c>
+      <c r="H138" t="n">
+        <v>220</v>
+      </c>
+      <c r="I138" t="n">
         <v>14</v>
       </c>
     </row>
@@ -10628,7 +10702,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I137"/>
+  <dimension ref="A1:I138"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15712,6 +15786,43 @@
         <v>85</v>
       </c>
       <c r="I137" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="n">
+        <v>45924.49113425926</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>0x00,0x6e</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>0x00,0x54</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F138" t="n">
+        <v>110</v>
+      </c>
+      <c r="G138" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H138" t="n">
+        <v>84</v>
+      </c>
+      <c r="I138" t="n">
         <v>3</v>
       </c>
     </row>
@@ -15726,7 +15837,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I137"/>
+  <dimension ref="A1:I138"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20813,6 +20924,43 @@
         <v>3</v>
       </c>
     </row>
+    <row r="138">
+      <c r="A138" s="2" t="n">
+        <v>45924.49113425926</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>0x00,0x6e</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>0xd0,0x97,0x78,0x01,0x00,0x00,0x0e,0x3f,0x0c,0x0c,</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>0x00,0x51</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F138" t="n">
+        <v>110</v>
+      </c>
+      <c r="G138" t="n">
+        <v>9.85046333984776e+23</v>
+      </c>
+      <c r="H138" t="n">
+        <v>81</v>
+      </c>
+      <c r="I138" t="n">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/FE2025May_Database_update.xlsx
+++ b/FE2025May_Database_update.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I138"/>
+  <dimension ref="A1:I139"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5553,6 +5553,43 @@
         <v>216</v>
       </c>
       <c r="I138" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="n">
+        <v>45925.49189814815</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>0x01,0x7c</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>0x00,0xa6,0x46,0x93,0x3c,0x23,0x3f,0x43,0xe8,0xa0,</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>0x00,0xD0</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>0xf</t>
+        </is>
+      </c>
+      <c r="F139" t="n">
+        <v>380</v>
+      </c>
+      <c r="G139" t="n">
+        <v>7.598631275147109e+23</v>
+      </c>
+      <c r="H139" t="n">
+        <v>212</v>
+      </c>
+      <c r="I139" t="n">
         <v>15</v>
       </c>
     </row>
@@ -5567,7 +5604,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I138"/>
+  <dimension ref="A1:I139"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10688,6 +10725,43 @@
         <v>220</v>
       </c>
       <c r="I138" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="n">
+        <v>45925.49189814815</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>0x00,0xa6,0x60,0x33,0x96,0x39,0x62,0xd0,0x5e,0x78,</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>0x00,0xD4</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F139" t="n">
+        <v>400</v>
+      </c>
+      <c r="G139" t="n">
+        <v>5.68432987514711e+23</v>
+      </c>
+      <c r="H139" t="n">
+        <v>220</v>
+      </c>
+      <c r="I139" t="n">
         <v>14</v>
       </c>
     </row>
@@ -10702,7 +10776,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I138"/>
+  <dimension ref="A1:I139"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15823,6 +15897,43 @@
         <v>84</v>
       </c>
       <c r="I138" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="n">
+        <v>45925.49189814815</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>0x00,0x6e</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>0x00,0x54</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F139" t="n">
+        <v>110</v>
+      </c>
+      <c r="G139" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H139" t="n">
+        <v>84</v>
+      </c>
+      <c r="I139" t="n">
         <v>3</v>
       </c>
     </row>
@@ -15837,7 +15948,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I138"/>
+  <dimension ref="A1:I139"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20961,6 +21072,43 @@
         <v>3</v>
       </c>
     </row>
+    <row r="139">
+      <c r="A139" s="2" t="n">
+        <v>45925.49189814815</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>0x00,0x6e</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>0xd0,0x97,0x78,0x01,0x00,0x00,0x0e,0x3f,0x0c,0x0c,</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>0x00,0x51</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F139" t="n">
+        <v>110</v>
+      </c>
+      <c r="G139" t="n">
+        <v>9.85046333984776e+23</v>
+      </c>
+      <c r="H139" t="n">
+        <v>81</v>
+      </c>
+      <c r="I139" t="n">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/FE2025May_Database_update.xlsx
+++ b/FE2025May_Database_update.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I139"/>
+  <dimension ref="A1:I140"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5590,6 +5590,43 @@
         <v>212</v>
       </c>
       <c r="I139" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="n">
+        <v>45926.49320601852</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>0x01,0x7c</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>0x00,0xa6,0x46,0x93,0x3c,0x23,0x3f,0x43,0xe8,0xa0,</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>0x00,0xD0</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>0xf</t>
+        </is>
+      </c>
+      <c r="F140" t="n">
+        <v>380</v>
+      </c>
+      <c r="G140" t="n">
+        <v>7.598631275147109e+23</v>
+      </c>
+      <c r="H140" t="n">
+        <v>212</v>
+      </c>
+      <c r="I140" t="n">
         <v>15</v>
       </c>
     </row>
@@ -5604,7 +5641,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I139"/>
+  <dimension ref="A1:I140"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10762,6 +10799,43 @@
         <v>220</v>
       </c>
       <c r="I139" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="n">
+        <v>45926.49320601852</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>0x00,0xa6,0x60,0x33,0x96,0x39,0x62,0xd0,0x5e,0x78,</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>0x00,0xD4</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F140" t="n">
+        <v>400</v>
+      </c>
+      <c r="G140" t="n">
+        <v>5.68432987514711e+23</v>
+      </c>
+      <c r="H140" t="n">
+        <v>220</v>
+      </c>
+      <c r="I140" t="n">
         <v>14</v>
       </c>
     </row>
@@ -10776,7 +10850,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I139"/>
+  <dimension ref="A1:I140"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15934,6 +16008,43 @@
         <v>84</v>
       </c>
       <c r="I139" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="n">
+        <v>45926.49320601852</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>0x00,0x6e</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>0x00,0x54</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F140" t="n">
+        <v>110</v>
+      </c>
+      <c r="G140" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H140" t="n">
+        <v>84</v>
+      </c>
+      <c r="I140" t="n">
         <v>3</v>
       </c>
     </row>
@@ -15948,7 +16059,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I139"/>
+  <dimension ref="A1:I140"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21109,6 +21220,43 @@
         <v>3</v>
       </c>
     </row>
+    <row r="140">
+      <c r="A140" s="2" t="n">
+        <v>45926.49320601852</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>0x00,0x6e</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>0xd0,0x97,0x78,0x01,0x00,0x00,0x0e,0x3f,0x0c,0x0c,</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>0x00,0x51</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F140" t="n">
+        <v>110</v>
+      </c>
+      <c r="G140" t="n">
+        <v>9.85046333984776e+23</v>
+      </c>
+      <c r="H140" t="n">
+        <v>81</v>
+      </c>
+      <c r="I140" t="n">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/FE2025May_Database_update.xlsx
+++ b/FE2025May_Database_update.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I140"/>
+  <dimension ref="A1:I141"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5627,6 +5627,43 @@
         <v>212</v>
       </c>
       <c r="I140" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="n">
+        <v>45927.4919212963</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>0x01,0x7c</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>0x00,0xa6,0x46,0x93,0x3c,0x23,0x3f,0x43,0xe8,0xa0,</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>0x00,0xCC</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>0xf</t>
+        </is>
+      </c>
+      <c r="F141" t="n">
+        <v>380</v>
+      </c>
+      <c r="G141" t="n">
+        <v>7.598631275147109e+23</v>
+      </c>
+      <c r="H141" t="n">
+        <v>212</v>
+      </c>
+      <c r="I141" t="n">
         <v>15</v>
       </c>
     </row>
@@ -5641,7 +5678,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I140"/>
+  <dimension ref="A1:I141"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10836,6 +10873,43 @@
         <v>220</v>
       </c>
       <c r="I140" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="n">
+        <v>45927.4919212963</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>0x00,0xa6,0x60,0x33,0x96,0x39,0x62,0xd0,0x5e,0x78,</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>0x00,0xD0</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F141" t="n">
+        <v>400</v>
+      </c>
+      <c r="G141" t="n">
+        <v>5.68432987514711e+23</v>
+      </c>
+      <c r="H141" t="n">
+        <v>220</v>
+      </c>
+      <c r="I141" t="n">
         <v>14</v>
       </c>
     </row>
@@ -10850,7 +10924,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I140"/>
+  <dimension ref="A1:I141"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16045,6 +16119,43 @@
         <v>84</v>
       </c>
       <c r="I140" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="n">
+        <v>45927.4919212963</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>0x00,0x6e</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>0x00,0x54</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F141" t="n">
+        <v>110</v>
+      </c>
+      <c r="G141" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H141" t="n">
+        <v>84</v>
+      </c>
+      <c r="I141" t="n">
         <v>3</v>
       </c>
     </row>
@@ -16059,7 +16170,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I140"/>
+  <dimension ref="A1:I141"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21257,6 +21368,43 @@
         <v>3</v>
       </c>
     </row>
+    <row r="141">
+      <c r="A141" s="2" t="n">
+        <v>45927.4919212963</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>0x00,0x6e</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>0xd0,0x97,0x78,0x01,0x00,0x00,0x0e,0x3f,0x0c,0x0c,</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>0x00,0x51</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F141" t="n">
+        <v>110</v>
+      </c>
+      <c r="G141" t="n">
+        <v>9.85046333984776e+23</v>
+      </c>
+      <c r="H141" t="n">
+        <v>81</v>
+      </c>
+      <c r="I141" t="n">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/FE2025May_Database_update.xlsx
+++ b/FE2025May_Database_update.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I141"/>
+  <dimension ref="A1:I142"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5664,6 +5664,43 @@
         <v>212</v>
       </c>
       <c r="I141" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="n">
+        <v>45928.49267361111</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>0x01,0x7c</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>0x00,0xa6,0x46,0x93,0x3c,0x23,0x3f,0x43,0xe8,0xa0,</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>0x00,0xCC</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>0xf</t>
+        </is>
+      </c>
+      <c r="F142" t="n">
+        <v>380</v>
+      </c>
+      <c r="G142" t="n">
+        <v>7.598631275147109e+23</v>
+      </c>
+      <c r="H142" t="n">
+        <v>212</v>
+      </c>
+      <c r="I142" t="n">
         <v>15</v>
       </c>
     </row>
@@ -5678,7 +5715,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I141"/>
+  <dimension ref="A1:I142"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10910,6 +10947,43 @@
         <v>220</v>
       </c>
       <c r="I141" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="n">
+        <v>45928.49267361111</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>0x00,0xa6,0x60,0x33,0x96,0x39,0x62,0xd0,0x5e,0x78,</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>0x00,0xD0</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F142" t="n">
+        <v>400</v>
+      </c>
+      <c r="G142" t="n">
+        <v>5.68432987514711e+23</v>
+      </c>
+      <c r="H142" t="n">
+        <v>216</v>
+      </c>
+      <c r="I142" t="n">
         <v>14</v>
       </c>
     </row>
@@ -10924,7 +10998,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I141"/>
+  <dimension ref="A1:I142"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16156,6 +16230,43 @@
         <v>84</v>
       </c>
       <c r="I141" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="n">
+        <v>45928.49267361111</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>0x00,0x6e</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>0x00,0x54</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F142" t="n">
+        <v>110</v>
+      </c>
+      <c r="G142" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H142" t="n">
+        <v>84</v>
+      </c>
+      <c r="I142" t="n">
         <v>3</v>
       </c>
     </row>
@@ -16170,7 +16281,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I141"/>
+  <dimension ref="A1:I142"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21405,6 +21516,43 @@
         <v>3</v>
       </c>
     </row>
+    <row r="142">
+      <c r="A142" s="2" t="n">
+        <v>45928.49267361111</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>0x00,0x6e</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>0xd0,0x97,0x78,0x01,0x00,0x00,0x0e,0x3f,0x0c,0x0c,</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>0x00,0x50</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F142" t="n">
+        <v>110</v>
+      </c>
+      <c r="G142" t="n">
+        <v>9.85046333984776e+23</v>
+      </c>
+      <c r="H142" t="n">
+        <v>80</v>
+      </c>
+      <c r="I142" t="n">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/FE2025May_Database_update.xlsx
+++ b/FE2025May_Database_update.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I142"/>
+  <dimension ref="A1:I143"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5701,6 +5701,43 @@
         <v>212</v>
       </c>
       <c r="I142" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="n">
+        <v>45929.49059027778</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>0x01,0x7c</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>0x00,0xa6,0x46,0x93,0x3c,0x23,0x3f,0x43,0xe8,0xa0,</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>0x00,0xCC</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>0xf</t>
+        </is>
+      </c>
+      <c r="F143" t="n">
+        <v>380</v>
+      </c>
+      <c r="G143" t="n">
+        <v>7.598631275147109e+23</v>
+      </c>
+      <c r="H143" t="n">
+        <v>212</v>
+      </c>
+      <c r="I143" t="n">
         <v>15</v>
       </c>
     </row>
@@ -5715,7 +5752,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I142"/>
+  <dimension ref="A1:I143"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10984,6 +11021,43 @@
         <v>216</v>
       </c>
       <c r="I142" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="n">
+        <v>45929.49059027778</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>0x00,0xa6,0x60,0x33,0x96,0x39,0x62,0xd0,0x5e,0x78,</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>0x00,0xD0</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F143" t="n">
+        <v>400</v>
+      </c>
+      <c r="G143" t="n">
+        <v>5.68432987514711e+23</v>
+      </c>
+      <c r="H143" t="n">
+        <v>216</v>
+      </c>
+      <c r="I143" t="n">
         <v>14</v>
       </c>
     </row>
@@ -10998,7 +11072,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I142"/>
+  <dimension ref="A1:I143"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16267,6 +16341,43 @@
         <v>84</v>
       </c>
       <c r="I142" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="n">
+        <v>45929.49059027778</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>0x00,0x6e</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>0x00,0x54</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F143" t="n">
+        <v>110</v>
+      </c>
+      <c r="G143" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H143" t="n">
+        <v>84</v>
+      </c>
+      <c r="I143" t="n">
         <v>3</v>
       </c>
     </row>
@@ -16281,7 +16392,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I142"/>
+  <dimension ref="A1:I143"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21553,6 +21664,43 @@
         <v>3</v>
       </c>
     </row>
+    <row r="143">
+      <c r="A143" s="2" t="n">
+        <v>45929.49059027778</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>0x00,0x6e</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>0xd0,0x97,0x78,0x01,0x00,0x00,0x0e,0x3f,0x0c,0x0c,</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>0x00,0x50</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F143" t="n">
+        <v>110</v>
+      </c>
+      <c r="G143" t="n">
+        <v>9.85046333984776e+23</v>
+      </c>
+      <c r="H143" t="n">
+        <v>80</v>
+      </c>
+      <c r="I143" t="n">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/FE2025May_Database_update.xlsx
+++ b/FE2025May_Database_update.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I143"/>
+  <dimension ref="A1:I146"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5738,6 +5738,117 @@
         <v>212</v>
       </c>
       <c r="I143" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="n">
+        <v>45930.49350694445</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>0x01,0x7c</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>0x00,0xa6,0x46,0x93,0x3c,0x23,0x3f,0x43,0xe8,0xa0,</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>0x00,0xC8</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>0xf</t>
+        </is>
+      </c>
+      <c r="F144" t="n">
+        <v>380</v>
+      </c>
+      <c r="G144" t="n">
+        <v>7.598631275147109e+23</v>
+      </c>
+      <c r="H144" t="n">
+        <v>208</v>
+      </c>
+      <c r="I144" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="n">
+        <v>45931.49167824074</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>0x01,0x7c</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>0x00,0xa6,0x46,0x93,0x3c,0x23,0x3f,0x43,0xe8,0xa0,</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>0x00,0xC8</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>0xf</t>
+        </is>
+      </c>
+      <c r="F145" t="n">
+        <v>380</v>
+      </c>
+      <c r="G145" t="n">
+        <v>7.598631275147109e+23</v>
+      </c>
+      <c r="H145" t="n">
+        <v>208</v>
+      </c>
+      <c r="I145" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="n">
+        <v>45932.49309027778</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>0x01,0x7c</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>0x00,0xa6,0x46,0x93,0x3c,0x23,0x3f,0x43,0xe8,0xa0,</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>0x00,0xC8</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>0xf</t>
+        </is>
+      </c>
+      <c r="F146" t="n">
+        <v>380</v>
+      </c>
+      <c r="G146" t="n">
+        <v>7.598631275147109e+23</v>
+      </c>
+      <c r="H146" t="n">
+        <v>208</v>
+      </c>
+      <c r="I146" t="n">
         <v>15</v>
       </c>
     </row>
@@ -5752,7 +5863,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I143"/>
+  <dimension ref="A1:I146"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11058,6 +11169,117 @@
         <v>216</v>
       </c>
       <c r="I143" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="n">
+        <v>45930.49350694445</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>0x00,0xa6,0x60,0x33,0x96,0x39,0x62,0xd0,0x5e,0x78,</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>0x00,0xCC</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F144" t="n">
+        <v>400</v>
+      </c>
+      <c r="G144" t="n">
+        <v>5.68432987514711e+23</v>
+      </c>
+      <c r="H144" t="n">
+        <v>216</v>
+      </c>
+      <c r="I144" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="n">
+        <v>45931.49167824074</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>0x00,0xa6,0x60,0x33,0x96,0x39,0x62,0xd0,0x5e,0x78,</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>0x00,0xCC</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F145" t="n">
+        <v>400</v>
+      </c>
+      <c r="G145" t="n">
+        <v>5.68432987514711e+23</v>
+      </c>
+      <c r="H145" t="n">
+        <v>212</v>
+      </c>
+      <c r="I145" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="n">
+        <v>45932.49309027778</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>0x00,0xa6,0x60,0x33,0x96,0x39,0x62,0xd0,0x5e,0x78,</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>0x00,0xCC</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F146" t="n">
+        <v>400</v>
+      </c>
+      <c r="G146" t="n">
+        <v>5.68432987514711e+23</v>
+      </c>
+      <c r="H146" t="n">
+        <v>212</v>
+      </c>
+      <c r="I146" t="n">
         <v>14</v>
       </c>
     </row>
@@ -11072,7 +11294,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I143"/>
+  <dimension ref="A1:I146"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16378,6 +16600,117 @@
         <v>84</v>
       </c>
       <c r="I143" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="n">
+        <v>45930.49350694445</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>0x00,0x6e</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>0x00,0x53</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F144" t="n">
+        <v>110</v>
+      </c>
+      <c r="G144" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H144" t="n">
+        <v>83</v>
+      </c>
+      <c r="I144" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="n">
+        <v>45931.49167824074</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>0x00,0x6e</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>0x00,0x53</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F145" t="n">
+        <v>110</v>
+      </c>
+      <c r="G145" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H145" t="n">
+        <v>83</v>
+      </c>
+      <c r="I145" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="n">
+        <v>45932.49309027778</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>0x00,0x6e</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>0x00,0x53</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F146" t="n">
+        <v>110</v>
+      </c>
+      <c r="G146" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H146" t="n">
+        <v>83</v>
+      </c>
+      <c r="I146" t="n">
         <v>3</v>
       </c>
     </row>
@@ -16392,7 +16725,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I143"/>
+  <dimension ref="A1:I146"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21701,6 +22034,117 @@
         <v>3</v>
       </c>
     </row>
+    <row r="144">
+      <c r="A144" s="2" t="n">
+        <v>45930.49350694445</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>0x00,0x6e</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>0xd0,0x97,0x78,0x01,0x00,0x00,0x0e,0x3f,0x0c,0x0c,</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>0x00,0x50</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F144" t="n">
+        <v>110</v>
+      </c>
+      <c r="G144" t="n">
+        <v>9.85046333984776e+23</v>
+      </c>
+      <c r="H144" t="n">
+        <v>80</v>
+      </c>
+      <c r="I144" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="n">
+        <v>45931.49167824074</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>0x00,0x6e</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>0xd0,0x97,0x78,0x01,0x00,0x00,0x0e,0x3f,0x0c,0x0c,</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>0x00,0x50</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F145" t="n">
+        <v>110</v>
+      </c>
+      <c r="G145" t="n">
+        <v>9.85046333984776e+23</v>
+      </c>
+      <c r="H145" t="n">
+        <v>80</v>
+      </c>
+      <c r="I145" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="n">
+        <v>45932.49309027778</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>0x00,0x6e</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>0xd0,0x97,0x78,0x01,0x00,0x00,0x0e,0x3f,0x0c,0x0c,</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>0x00,0x50</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F146" t="n">
+        <v>110</v>
+      </c>
+      <c r="G146" t="n">
+        <v>9.85046333984776e+23</v>
+      </c>
+      <c r="H146" t="n">
+        <v>80</v>
+      </c>
+      <c r="I146" t="n">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/FE2025May_Database_update.xlsx
+++ b/FE2025May_Database_update.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I146"/>
+  <dimension ref="A1:I147"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5849,6 +5849,43 @@
         <v>208</v>
       </c>
       <c r="I146" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="n">
+        <v>45933.49609953703</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>0x01,0x7c</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>0x00,0xa6,0x46,0x93,0x3c,0x23,0x3f,0x43,0xe8,0xa0,</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>0x00,0xC8</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>0xf</t>
+        </is>
+      </c>
+      <c r="F147" t="n">
+        <v>380</v>
+      </c>
+      <c r="G147" t="n">
+        <v>7.598631275147109e+23</v>
+      </c>
+      <c r="H147" t="n">
+        <v>208</v>
+      </c>
+      <c r="I147" t="n">
         <v>15</v>
       </c>
     </row>
@@ -5863,7 +5900,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I146"/>
+  <dimension ref="A1:I147"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11280,6 +11317,43 @@
         <v>212</v>
       </c>
       <c r="I146" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="n">
+        <v>45933.49609953703</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>0x00,0xa6,0x60,0x33,0x96,0x39,0x62,0xd0,0x5e,0x78,</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>0x00,0xCC</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F147" t="n">
+        <v>400</v>
+      </c>
+      <c r="G147" t="n">
+        <v>5.68432987514711e+23</v>
+      </c>
+      <c r="H147" t="n">
+        <v>212</v>
+      </c>
+      <c r="I147" t="n">
         <v>14</v>
       </c>
     </row>
@@ -11294,7 +11368,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I146"/>
+  <dimension ref="A1:I147"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16711,6 +16785,43 @@
         <v>83</v>
       </c>
       <c r="I146" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="n">
+        <v>45933.49609953703</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>0x00,0x6e</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>0x00,0x53</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F147" t="n">
+        <v>110</v>
+      </c>
+      <c r="G147" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H147" t="n">
+        <v>83</v>
+      </c>
+      <c r="I147" t="n">
         <v>3</v>
       </c>
     </row>
@@ -16725,7 +16836,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I146"/>
+  <dimension ref="A1:I147"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22145,6 +22256,43 @@
         <v>3</v>
       </c>
     </row>
+    <row r="147">
+      <c r="A147" s="2" t="n">
+        <v>45933.49609953703</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>0x00,0x6e</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>0xd0,0x97,0x78,0x01,0x00,0x00,0x0e,0x3f,0x0c,0x0c,</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>0x00,0x4F</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F147" t="n">
+        <v>110</v>
+      </c>
+      <c r="G147" t="n">
+        <v>9.85046333984776e+23</v>
+      </c>
+      <c r="H147" t="n">
+        <v>79</v>
+      </c>
+      <c r="I147" t="n">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/FE2025May_Database_update.xlsx
+++ b/FE2025May_Database_update.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I147"/>
+  <dimension ref="A1:I148"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5886,6 +5886,43 @@
         <v>208</v>
       </c>
       <c r="I147" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="n">
+        <v>45934.49434027778</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>0x01,0x7c</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>0x00,0xa6,0x46,0x93,0x3c,0x23,0x3f,0x43,0xe8,0xa0,</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>0x00,0xC4</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>0xf</t>
+        </is>
+      </c>
+      <c r="F148" t="n">
+        <v>380</v>
+      </c>
+      <c r="G148" t="n">
+        <v>7.598631275147109e+23</v>
+      </c>
+      <c r="H148" t="n">
+        <v>208</v>
+      </c>
+      <c r="I148" t="n">
         <v>15</v>
       </c>
     </row>
@@ -5900,7 +5937,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I147"/>
+  <dimension ref="A1:I148"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11354,6 +11391,43 @@
         <v>212</v>
       </c>
       <c r="I147" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="n">
+        <v>45934.49434027778</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>0x00,0xa6,0x60,0x33,0x96,0x39,0x62,0xd0,0x5e,0x78,</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>0x00,0xC8</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F148" t="n">
+        <v>400</v>
+      </c>
+      <c r="G148" t="n">
+        <v>5.68432987514711e+23</v>
+      </c>
+      <c r="H148" t="n">
+        <v>208</v>
+      </c>
+      <c r="I148" t="n">
         <v>14</v>
       </c>
     </row>
@@ -11368,7 +11442,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I147"/>
+  <dimension ref="A1:I148"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16822,6 +16896,43 @@
         <v>83</v>
       </c>
       <c r="I147" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="n">
+        <v>45934.49434027778</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>0x00,0x6e</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>0x00,0x53</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F148" t="n">
+        <v>110</v>
+      </c>
+      <c r="G148" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H148" t="n">
+        <v>83</v>
+      </c>
+      <c r="I148" t="n">
         <v>3</v>
       </c>
     </row>
@@ -16836,7 +16947,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I147"/>
+  <dimension ref="A1:I148"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22293,6 +22404,43 @@
         <v>3</v>
       </c>
     </row>
+    <row r="148">
+      <c r="A148" s="2" t="n">
+        <v>45934.49434027778</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>0x00,0x6e</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>0xd0,0x97,0x78,0x01,0x00,0x00,0x0e,0x3f,0x0c,0x0c,</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>0x00,0x4F</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F148" t="n">
+        <v>110</v>
+      </c>
+      <c r="G148" t="n">
+        <v>9.85046333984776e+23</v>
+      </c>
+      <c r="H148" t="n">
+        <v>79</v>
+      </c>
+      <c r="I148" t="n">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/FE2025May_Database_update.xlsx
+++ b/FE2025May_Database_update.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I148"/>
+  <dimension ref="A1:I149"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5923,6 +5923,43 @@
         <v>208</v>
       </c>
       <c r="I148" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="2" t="n">
+        <v>45935.49543981482</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>0x01,0x7c</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>0x00,0xa6,0x46,0x93,0x3c,0x23,0x3f,0x43,0xe8,0xa0,</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>0x00,0xC4</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>0xf</t>
+        </is>
+      </c>
+      <c r="F149" t="n">
+        <v>380</v>
+      </c>
+      <c r="G149" t="n">
+        <v>7.598631275147109e+23</v>
+      </c>
+      <c r="H149" t="n">
+        <v>204</v>
+      </c>
+      <c r="I149" t="n">
         <v>15</v>
       </c>
     </row>
@@ -5937,7 +5974,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I148"/>
+  <dimension ref="A1:I149"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11428,6 +11465,43 @@
         <v>208</v>
       </c>
       <c r="I148" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="2" t="n">
+        <v>45935.49543981482</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>0x00,0xa6,0x60,0x33,0x96,0x39,0x62,0xd0,0x5e,0x78,</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>0x00,0xC8</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F149" t="n">
+        <v>400</v>
+      </c>
+      <c r="G149" t="n">
+        <v>5.68432987514711e+23</v>
+      </c>
+      <c r="H149" t="n">
+        <v>208</v>
+      </c>
+      <c r="I149" t="n">
         <v>14</v>
       </c>
     </row>
@@ -11442,7 +11516,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I148"/>
+  <dimension ref="A1:I149"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16933,6 +17007,43 @@
         <v>83</v>
       </c>
       <c r="I148" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="2" t="n">
+        <v>45935.49543981482</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>0x00,0x6e</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>0x00,0x52</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F149" t="n">
+        <v>110</v>
+      </c>
+      <c r="G149" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H149" t="n">
+        <v>82</v>
+      </c>
+      <c r="I149" t="n">
         <v>3</v>
       </c>
     </row>
@@ -16947,7 +17058,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I148"/>
+  <dimension ref="A1:I149"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22441,6 +22552,43 @@
         <v>3</v>
       </c>
     </row>
+    <row r="149">
+      <c r="A149" s="2" t="n">
+        <v>45935.49543981482</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>0x00,0x6e</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>0xd0,0x97,0x78,0x01,0x00,0x00,0x0e,0x3f,0x0c,0x0c,</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>0x00,0x4F</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F149" t="n">
+        <v>110</v>
+      </c>
+      <c r="G149" t="n">
+        <v>9.85046333984776e+23</v>
+      </c>
+      <c r="H149" t="n">
+        <v>79</v>
+      </c>
+      <c r="I149" t="n">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/FE2025May_Database_update.xlsx
+++ b/FE2025May_Database_update.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I149"/>
+  <dimension ref="A1:I150"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5960,6 +5960,43 @@
         <v>204</v>
       </c>
       <c r="I149" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="n">
+        <v>45936.49344907407</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>0x01,0x7c</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>0x00,0xa6,0x46,0x93,0x3c,0x23,0x3f,0x43,0xe8,0xa0,</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>0x00,0xC4</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>0xf</t>
+        </is>
+      </c>
+      <c r="F150" t="n">
+        <v>380</v>
+      </c>
+      <c r="G150" t="n">
+        <v>7.598631275147109e+23</v>
+      </c>
+      <c r="H150" t="n">
+        <v>204</v>
+      </c>
+      <c r="I150" t="n">
         <v>15</v>
       </c>
     </row>
@@ -5974,7 +6011,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I149"/>
+  <dimension ref="A1:I150"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11502,6 +11539,43 @@
         <v>208</v>
       </c>
       <c r="I149" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="n">
+        <v>45936.49344907407</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>0x00,0xa6,0x60,0x33,0x96,0x39,0x62,0xd0,0x5e,0x78,</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>0x00,0xC8</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F150" t="n">
+        <v>400</v>
+      </c>
+      <c r="G150" t="n">
+        <v>5.68432987514711e+23</v>
+      </c>
+      <c r="H150" t="n">
+        <v>208</v>
+      </c>
+      <c r="I150" t="n">
         <v>14</v>
       </c>
     </row>
@@ -11516,7 +11590,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I149"/>
+  <dimension ref="A1:I150"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17044,6 +17118,43 @@
         <v>82</v>
       </c>
       <c r="I149" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="n">
+        <v>45936.49344907407</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>0x00,0x6e</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>0x00,0x52</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F150" t="n">
+        <v>110</v>
+      </c>
+      <c r="G150" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H150" t="n">
+        <v>82</v>
+      </c>
+      <c r="I150" t="n">
         <v>3</v>
       </c>
     </row>
@@ -17058,7 +17169,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I149"/>
+  <dimension ref="A1:I150"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22589,6 +22700,43 @@
         <v>3</v>
       </c>
     </row>
+    <row r="150">
+      <c r="A150" s="2" t="n">
+        <v>45936.49344907407</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>0x00,0x6e</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>0xd0,0x97,0x78,0x01,0x00,0x00,0x0e,0x3f,0x0c,0x0c,</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>0x00,0x4F</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F150" t="n">
+        <v>110</v>
+      </c>
+      <c r="G150" t="n">
+        <v>9.85046333984776e+23</v>
+      </c>
+      <c r="H150" t="n">
+        <v>79</v>
+      </c>
+      <c r="I150" t="n">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/FE2025May_Database_update.xlsx
+++ b/FE2025May_Database_update.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I150"/>
+  <dimension ref="A1:I151"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5997,6 +5997,43 @@
         <v>204</v>
       </c>
       <c r="I150" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="n">
+        <v>45937.49371527778</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>0x01,0x7c</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>0x00,0xa6,0x46,0x93,0x3c,0x23,0x3f,0x43,0xe8,0xa0,</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>0x00,0xC0</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>0xf</t>
+        </is>
+      </c>
+      <c r="F151" t="n">
+        <v>380</v>
+      </c>
+      <c r="G151" t="n">
+        <v>7.598631275147109e+23</v>
+      </c>
+      <c r="H151" t="n">
+        <v>204</v>
+      </c>
+      <c r="I151" t="n">
         <v>15</v>
       </c>
     </row>
@@ -6011,7 +6048,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I150"/>
+  <dimension ref="A1:I151"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11576,6 +11613,43 @@
         <v>208</v>
       </c>
       <c r="I150" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="n">
+        <v>45937.49371527778</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>0x00,0xa6,0x60,0x33,0x96,0x39,0x62,0xd0,0x5e,0x78,</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>0x00,0xC4</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F151" t="n">
+        <v>400</v>
+      </c>
+      <c r="G151" t="n">
+        <v>5.68432987514711e+23</v>
+      </c>
+      <c r="H151" t="n">
+        <v>204</v>
+      </c>
+      <c r="I151" t="n">
         <v>14</v>
       </c>
     </row>
@@ -11590,7 +11664,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I150"/>
+  <dimension ref="A1:I151"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17155,6 +17229,43 @@
         <v>82</v>
       </c>
       <c r="I150" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="n">
+        <v>45937.49371527778</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>0x00,0x6e</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>0x00,0x52</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F151" t="n">
+        <v>110</v>
+      </c>
+      <c r="G151" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H151" t="n">
+        <v>82</v>
+      </c>
+      <c r="I151" t="n">
         <v>3</v>
       </c>
     </row>
@@ -17169,7 +17280,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I150"/>
+  <dimension ref="A1:I151"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22737,6 +22848,43 @@
         <v>3</v>
       </c>
     </row>
+    <row r="151">
+      <c r="A151" s="2" t="n">
+        <v>45937.49371527778</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>0x00,0x6e</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>0xd0,0x97,0x78,0x01,0x00,0x00,0x0e,0x3f,0x0c,0x0c,</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>0x00,0x4E</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F151" t="n">
+        <v>110</v>
+      </c>
+      <c r="G151" t="n">
+        <v>9.85046333984776e+23</v>
+      </c>
+      <c r="H151" t="n">
+        <v>78</v>
+      </c>
+      <c r="I151" t="n">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/FE2025May_Database_update.xlsx
+++ b/FE2025May_Database_update.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I151"/>
+  <dimension ref="A1:I152"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6034,6 +6034,43 @@
         <v>204</v>
       </c>
       <c r="I151" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="n">
+        <v>45938.4943287037</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>0x01,0x7c</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>0x00,0xa6,0x46,0x93,0x3c,0x23,0x3f,0x43,0xe8,0xa0,</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>0x00,0xC0</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>0xf</t>
+        </is>
+      </c>
+      <c r="F152" t="n">
+        <v>380</v>
+      </c>
+      <c r="G152" t="n">
+        <v>7.598631275147109e+23</v>
+      </c>
+      <c r="H152" t="n">
+        <v>204</v>
+      </c>
+      <c r="I152" t="n">
         <v>15</v>
       </c>
     </row>
@@ -6048,7 +6085,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I151"/>
+  <dimension ref="A1:I152"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11650,6 +11687,43 @@
         <v>204</v>
       </c>
       <c r="I151" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="n">
+        <v>45938.4943287037</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>0x00,0xa6,0x60,0x33,0x96,0x39,0x62,0xd0,0x5e,0x78,</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>0x00,0xC4</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F152" t="n">
+        <v>400</v>
+      </c>
+      <c r="G152" t="n">
+        <v>5.68432987514711e+23</v>
+      </c>
+      <c r="H152" t="n">
+        <v>204</v>
+      </c>
+      <c r="I152" t="n">
         <v>14</v>
       </c>
     </row>
@@ -11664,7 +11738,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I151"/>
+  <dimension ref="A1:I152"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17266,6 +17340,43 @@
         <v>82</v>
       </c>
       <c r="I151" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="n">
+        <v>45938.4943287037</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>0x00,0x6e</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>0x00,0x52</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F152" t="n">
+        <v>110</v>
+      </c>
+      <c r="G152" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H152" t="n">
+        <v>82</v>
+      </c>
+      <c r="I152" t="n">
         <v>3</v>
       </c>
     </row>
@@ -17280,7 +17391,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I151"/>
+  <dimension ref="A1:I152"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22885,6 +22996,43 @@
         <v>3</v>
       </c>
     </row>
+    <row r="152">
+      <c r="A152" s="2" t="n">
+        <v>45938.4943287037</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>0x00,0x6e</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>0xd0,0x97,0x78,0x01,0x00,0x00,0x0e,0x3f,0x0c,0x0c,</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>0x00,0x4D</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F152" t="n">
+        <v>110</v>
+      </c>
+      <c r="G152" t="n">
+        <v>9.85046333984776e+23</v>
+      </c>
+      <c r="H152" t="n">
+        <v>77</v>
+      </c>
+      <c r="I152" t="n">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/FE2025May_Database_update.xlsx
+++ b/FE2025May_Database_update.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I152"/>
+  <dimension ref="A1:I153"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6071,6 +6071,43 @@
         <v>204</v>
       </c>
       <c r="I152" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="2" t="n">
+        <v>45939.49148148148</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>0x01,0x7c</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>0x00,0xa6,0x46,0x93,0x3c,0x23,0x3f,0x43,0xe8,0xa0,</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>0x00,0xC0</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>0xf</t>
+        </is>
+      </c>
+      <c r="F153" t="n">
+        <v>380</v>
+      </c>
+      <c r="G153" t="n">
+        <v>7.598631275147109e+23</v>
+      </c>
+      <c r="H153" t="n">
+        <v>200</v>
+      </c>
+      <c r="I153" t="n">
         <v>15</v>
       </c>
     </row>
@@ -6085,7 +6122,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I152"/>
+  <dimension ref="A1:I153"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11724,6 +11761,43 @@
         <v>204</v>
       </c>
       <c r="I152" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="2" t="n">
+        <v>45939.49148148148</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>0x00,0xa6,0x60,0x33,0x96,0x39,0x62,0xd0,0x5e,0x78,</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>0x00,0xC4</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F153" t="n">
+        <v>400</v>
+      </c>
+      <c r="G153" t="n">
+        <v>5.68432987514711e+23</v>
+      </c>
+      <c r="H153" t="n">
+        <v>204</v>
+      </c>
+      <c r="I153" t="n">
         <v>14</v>
       </c>
     </row>
@@ -11738,7 +11812,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I152"/>
+  <dimension ref="A1:I153"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17377,6 +17451,43 @@
         <v>82</v>
       </c>
       <c r="I152" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="2" t="n">
+        <v>45939.49148148148</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>0x00,0x6e</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>0x00,0x51</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F153" t="n">
+        <v>110</v>
+      </c>
+      <c r="G153" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H153" t="n">
+        <v>81</v>
+      </c>
+      <c r="I153" t="n">
         <v>3</v>
       </c>
     </row>
@@ -17391,7 +17502,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I152"/>
+  <dimension ref="A1:I153"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23033,6 +23144,43 @@
         <v>3</v>
       </c>
     </row>
+    <row r="153">
+      <c r="A153" s="2" t="n">
+        <v>45939.49148148148</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>0x00,0x6e</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>0xd0,0x97,0x78,0x01,0x00,0x00,0x0e,0x3f,0x0c,0x0c,</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>0x00,0x4D</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F153" t="n">
+        <v>110</v>
+      </c>
+      <c r="G153" t="n">
+        <v>9.85046333984776e+23</v>
+      </c>
+      <c r="H153" t="n">
+        <v>77</v>
+      </c>
+      <c r="I153" t="n">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/FE2025May_Database_update.xlsx
+++ b/FE2025May_Database_update.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I153"/>
+  <dimension ref="A1:I154"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6108,6 +6108,43 @@
         <v>200</v>
       </c>
       <c r="I153" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="2" t="n">
+        <v>45940.49510416666</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>0x01,0x7c</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>0x00,0xa6,0x46,0x93,0x3c,0x23,0x3f,0x43,0xe8,0xa0,</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>0x00,0xBC</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>0xf</t>
+        </is>
+      </c>
+      <c r="F154" t="n">
+        <v>380</v>
+      </c>
+      <c r="G154" t="n">
+        <v>7.598631275147109e+23</v>
+      </c>
+      <c r="H154" t="n">
+        <v>200</v>
+      </c>
+      <c r="I154" t="n">
         <v>15</v>
       </c>
     </row>
@@ -6122,7 +6159,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I153"/>
+  <dimension ref="A1:I154"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11798,6 +11835,43 @@
         <v>204</v>
       </c>
       <c r="I153" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="2" t="n">
+        <v>45940.49510416666</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>0x00,0xa6,0x60,0x33,0x96,0x39,0x62,0xd0,0x5e,0x78,</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>0x00,0xC0</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F154" t="n">
+        <v>400</v>
+      </c>
+      <c r="G154" t="n">
+        <v>5.68432987514711e+23</v>
+      </c>
+      <c r="H154" t="n">
+        <v>200</v>
+      </c>
+      <c r="I154" t="n">
         <v>14</v>
       </c>
     </row>
@@ -11812,7 +11886,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I153"/>
+  <dimension ref="A1:I154"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17488,6 +17562,43 @@
         <v>81</v>
       </c>
       <c r="I153" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="2" t="n">
+        <v>45940.49510416666</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>0x00,0x6e</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>0x00,0x50</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F154" t="n">
+        <v>110</v>
+      </c>
+      <c r="G154" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H154" t="n">
+        <v>80</v>
+      </c>
+      <c r="I154" t="n">
         <v>3</v>
       </c>
     </row>
@@ -17502,7 +17613,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I153"/>
+  <dimension ref="A1:I154"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23181,6 +23292,43 @@
         <v>3</v>
       </c>
     </row>
+    <row r="154">
+      <c r="A154" s="2" t="n">
+        <v>45940.49510416666</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>0x00,0x6e</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>0xd0,0x97,0x78,0x01,0x00,0x00,0x0e,0x3f,0x0c,0x0c,</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>0x00,0x4D</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F154" t="n">
+        <v>110</v>
+      </c>
+      <c r="G154" t="n">
+        <v>9.85046333984776e+23</v>
+      </c>
+      <c r="H154" t="n">
+        <v>77</v>
+      </c>
+      <c r="I154" t="n">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/FE2025May_Database_update.xlsx
+++ b/FE2025May_Database_update.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I154"/>
+  <dimension ref="A1:I155"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6145,6 +6145,43 @@
         <v>200</v>
       </c>
       <c r="I154" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="2" t="n">
+        <v>45941.49347222222</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>0x01,0x7c</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>0x00,0xa6,0x46,0x93,0x3c,0x23,0x3f,0x43,0xe8,0xa0,</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>0x00,0xBC</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>0xf</t>
+        </is>
+      </c>
+      <c r="F155" t="n">
+        <v>380</v>
+      </c>
+      <c r="G155" t="n">
+        <v>7.598631275147109e+23</v>
+      </c>
+      <c r="H155" t="n">
+        <v>200</v>
+      </c>
+      <c r="I155" t="n">
         <v>15</v>
       </c>
     </row>
@@ -6159,7 +6196,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I154"/>
+  <dimension ref="A1:I155"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11872,6 +11909,43 @@
         <v>200</v>
       </c>
       <c r="I154" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="2" t="n">
+        <v>45941.49347222222</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>0x00,0xa6,0x60,0x33,0x96,0x39,0x62,0xd0,0x5e,0x78,</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>0x00,0xC0</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F155" t="n">
+        <v>400</v>
+      </c>
+      <c r="G155" t="n">
+        <v>5.68432987514711e+23</v>
+      </c>
+      <c r="H155" t="n">
+        <v>200</v>
+      </c>
+      <c r="I155" t="n">
         <v>14</v>
       </c>
     </row>
@@ -11886,7 +11960,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I154"/>
+  <dimension ref="A1:I155"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17599,6 +17673,43 @@
         <v>80</v>
       </c>
       <c r="I154" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="2" t="n">
+        <v>45941.49347222222</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>0x00,0x6e</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>0x00,0x50</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F155" t="n">
+        <v>110</v>
+      </c>
+      <c r="G155" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H155" t="n">
+        <v>80</v>
+      </c>
+      <c r="I155" t="n">
         <v>3</v>
       </c>
     </row>
@@ -17613,7 +17724,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I154"/>
+  <dimension ref="A1:I155"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23329,6 +23440,43 @@
         <v>3</v>
       </c>
     </row>
+    <row r="155">
+      <c r="A155" s="2" t="n">
+        <v>45941.49347222222</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>0x00,0x6e</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>0xd0,0x97,0x78,0x01,0x00,0x00,0x0e,0x3f,0x0c,0x0c,</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>0x00,0x4D</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F155" t="n">
+        <v>110</v>
+      </c>
+      <c r="G155" t="n">
+        <v>9.85046333984776e+23</v>
+      </c>
+      <c r="H155" t="n">
+        <v>77</v>
+      </c>
+      <c r="I155" t="n">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/FE2025May_Database_update.xlsx
+++ b/FE2025May_Database_update.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I155"/>
+  <dimension ref="A1:I156"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6182,6 +6182,43 @@
         <v>200</v>
       </c>
       <c r="I155" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="2" t="n">
+        <v>45942.49414351852</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>0x01,0x7c</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>0x00,0xa6,0x46,0x93,0x3c,0x23,0x3f,0x43,0xe8,0xa0,</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>0x00,0xBC</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>0xf</t>
+        </is>
+      </c>
+      <c r="F156" t="n">
+        <v>380</v>
+      </c>
+      <c r="G156" t="n">
+        <v>7.598631275147109e+23</v>
+      </c>
+      <c r="H156" t="n">
+        <v>196</v>
+      </c>
+      <c r="I156" t="n">
         <v>15</v>
       </c>
     </row>
@@ -6196,7 +6233,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I155"/>
+  <dimension ref="A1:I156"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11946,6 +11983,43 @@
         <v>200</v>
       </c>
       <c r="I155" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="2" t="n">
+        <v>45942.49414351852</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>0x00,0xa6,0x60,0x33,0x96,0x39,0x62,0xd0,0x5e,0x78,</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>0x00,0xC0</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F156" t="n">
+        <v>400</v>
+      </c>
+      <c r="G156" t="n">
+        <v>5.68432987514711e+23</v>
+      </c>
+      <c r="H156" t="n">
+        <v>200</v>
+      </c>
+      <c r="I156" t="n">
         <v>14</v>
       </c>
     </row>
@@ -11960,7 +12034,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I155"/>
+  <dimension ref="A1:I156"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17710,6 +17784,43 @@
         <v>80</v>
       </c>
       <c r="I155" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="2" t="n">
+        <v>45942.49414351852</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>0x00,0x6e</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>0x00,0x50</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F156" t="n">
+        <v>110</v>
+      </c>
+      <c r="G156" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H156" t="n">
+        <v>80</v>
+      </c>
+      <c r="I156" t="n">
         <v>3</v>
       </c>
     </row>
@@ -17724,7 +17835,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I155"/>
+  <dimension ref="A1:I156"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23477,6 +23588,43 @@
         <v>3</v>
       </c>
     </row>
+    <row r="156">
+      <c r="A156" s="2" t="n">
+        <v>45942.49414351852</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>0x00,0x6e</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>0xd0,0x97,0x78,0x01,0x00,0x00,0x0e,0x3f,0x0c,0x0c,</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>0x00,0x4D</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F156" t="n">
+        <v>110</v>
+      </c>
+      <c r="G156" t="n">
+        <v>9.85046333984776e+23</v>
+      </c>
+      <c r="H156" t="n">
+        <v>77</v>
+      </c>
+      <c r="I156" t="n">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/FE2025May_Database_update.xlsx
+++ b/FE2025May_Database_update.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I156"/>
+  <dimension ref="A1:I157"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6219,6 +6219,43 @@
         <v>196</v>
       </c>
       <c r="I156" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="2" t="n">
+        <v>45943.49266203704</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>0x01,0x7c</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>0x00,0xa6,0x46,0x93,0x3c,0x23,0x3f,0x43,0xe8,0xa0,</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>0x00,0xBC</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>0xf</t>
+        </is>
+      </c>
+      <c r="F157" t="n">
+        <v>380</v>
+      </c>
+      <c r="G157" t="n">
+        <v>7.598631275147109e+23</v>
+      </c>
+      <c r="H157" t="n">
+        <v>196</v>
+      </c>
+      <c r="I157" t="n">
         <v>15</v>
       </c>
     </row>
@@ -6233,7 +6270,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I156"/>
+  <dimension ref="A1:I157"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12020,6 +12057,43 @@
         <v>200</v>
       </c>
       <c r="I156" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="2" t="n">
+        <v>45943.49266203704</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>0x00,0xa6,0x60,0x33,0x96,0x39,0x62,0xd0,0x5e,0x78,</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>0x00,0xBC</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F157" t="n">
+        <v>400</v>
+      </c>
+      <c r="G157" t="n">
+        <v>5.68432987514711e+23</v>
+      </c>
+      <c r="H157" t="n">
+        <v>196</v>
+      </c>
+      <c r="I157" t="n">
         <v>14</v>
       </c>
     </row>
@@ -12034,7 +12108,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I156"/>
+  <dimension ref="A1:I157"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17821,6 +17895,43 @@
         <v>80</v>
       </c>
       <c r="I156" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="2" t="n">
+        <v>45943.49266203704</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>0x00,0x6e</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>0x00,0x50</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F157" t="n">
+        <v>110</v>
+      </c>
+      <c r="G157" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H157" t="n">
+        <v>80</v>
+      </c>
+      <c r="I157" t="n">
         <v>3</v>
       </c>
     </row>
@@ -17835,7 +17946,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I156"/>
+  <dimension ref="A1:I157"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23625,6 +23736,43 @@
         <v>3</v>
       </c>
     </row>
+    <row r="157">
+      <c r="A157" s="2" t="n">
+        <v>45943.49266203704</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>0x00,0x6e</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>0xd0,0x97,0x78,0x01,0x00,0x00,0x0e,0x3f,0x0c,0x0c,</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>0x00,0x4C</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F157" t="n">
+        <v>110</v>
+      </c>
+      <c r="G157" t="n">
+        <v>9.85046333984776e+23</v>
+      </c>
+      <c r="H157" t="n">
+        <v>76</v>
+      </c>
+      <c r="I157" t="n">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/FE2025May_Database_update.xlsx
+++ b/FE2025May_Database_update.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I157"/>
+  <dimension ref="A1:I158"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6256,6 +6256,43 @@
         <v>196</v>
       </c>
       <c r="I157" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="2" t="n">
+        <v>45944.49719907407</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>0x01,0x7c</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>0x00,0xa6,0x46,0x93,0x3c,0x23,0x3f,0x43,0xe8,0xa0,</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>0x00,0xB8</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>0xf</t>
+        </is>
+      </c>
+      <c r="F158" t="n">
+        <v>380</v>
+      </c>
+      <c r="G158" t="n">
+        <v>7.598631275147109e+23</v>
+      </c>
+      <c r="H158" t="n">
+        <v>196</v>
+      </c>
+      <c r="I158" t="n">
         <v>15</v>
       </c>
     </row>
@@ -6270,7 +6307,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I157"/>
+  <dimension ref="A1:I158"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12094,6 +12131,43 @@
         <v>196</v>
       </c>
       <c r="I157" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="2" t="n">
+        <v>45944.49719907407</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>0x00,0xa6,0x60,0x33,0x96,0x39,0x62,0xd0,0x5e,0x78,</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>0x00,0xBC</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F158" t="n">
+        <v>400</v>
+      </c>
+      <c r="G158" t="n">
+        <v>5.68432987514711e+23</v>
+      </c>
+      <c r="H158" t="n">
+        <v>196</v>
+      </c>
+      <c r="I158" t="n">
         <v>14</v>
       </c>
     </row>
@@ -12108,7 +12182,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I157"/>
+  <dimension ref="A1:I158"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17932,6 +18006,43 @@
         <v>80</v>
       </c>
       <c r="I157" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="2" t="n">
+        <v>45944.49719907407</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>0x00,0x6e</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>0x00,0x50</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F158" t="n">
+        <v>110</v>
+      </c>
+      <c r="G158" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H158" t="n">
+        <v>80</v>
+      </c>
+      <c r="I158" t="n">
         <v>3</v>
       </c>
     </row>
@@ -17946,7 +18057,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I157"/>
+  <dimension ref="A1:I158"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23773,6 +23884,43 @@
         <v>3</v>
       </c>
     </row>
+    <row r="158">
+      <c r="A158" s="2" t="n">
+        <v>45944.49719907407</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>0x00,0x6e</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>0xd0,0x97,0x78,0x01,0x00,0x00,0x0e,0x3f,0x0c,0x0c,</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>0x00,0x4C</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F158" t="n">
+        <v>110</v>
+      </c>
+      <c r="G158" t="n">
+        <v>9.85046333984776e+23</v>
+      </c>
+      <c r="H158" t="n">
+        <v>76</v>
+      </c>
+      <c r="I158" t="n">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/FE2025May_Database_update.xlsx
+++ b/FE2025May_Database_update.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I158"/>
+  <dimension ref="A1:I160"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6293,6 +6293,80 @@
         <v>196</v>
       </c>
       <c r="I158" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="2" t="n">
+        <v>45945.49385416666</v>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>0x01,0x7c</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>0x00,0xa6,0x46,0x93,0x3c,0x23,0x3f,0x43,0xe8,0xa0,</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>0x00,0xB8</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>0xf</t>
+        </is>
+      </c>
+      <c r="F159" t="n">
+        <v>380</v>
+      </c>
+      <c r="G159" t="n">
+        <v>7.598631275147109e+23</v>
+      </c>
+      <c r="H159" t="n">
+        <v>196</v>
+      </c>
+      <c r="I159" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="2" t="n">
+        <v>45946.49204861111</v>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>0x01,0x7c</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>0x00,0xa6,0x46,0x93,0x3c,0x23,0x3f,0x43,0xe8,0xa0,</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>0x00,0xB8</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>0xf</t>
+        </is>
+      </c>
+      <c r="F160" t="n">
+        <v>380</v>
+      </c>
+      <c r="G160" t="n">
+        <v>7.598631275147109e+23</v>
+      </c>
+      <c r="H160" t="n">
+        <v>192</v>
+      </c>
+      <c r="I160" t="n">
         <v>15</v>
       </c>
     </row>
@@ -6307,7 +6381,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I158"/>
+  <dimension ref="A1:I160"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12168,6 +12242,80 @@
         <v>196</v>
       </c>
       <c r="I158" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="2" t="n">
+        <v>45945.49385416666</v>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>0x00,0xa6,0x60,0x33,0x96,0x39,0x62,0xd0,0x5e,0x78,</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>0x00,0xBC</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F159" t="n">
+        <v>400</v>
+      </c>
+      <c r="G159" t="n">
+        <v>5.68432987514711e+23</v>
+      </c>
+      <c r="H159" t="n">
+        <v>196</v>
+      </c>
+      <c r="I159" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="2" t="n">
+        <v>45946.49204861111</v>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>0x00,0xa6,0x60,0x33,0x96,0x39,0x62,0xd0,0x5e,0x78,</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>0x00,0xB8</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F160" t="n">
+        <v>400</v>
+      </c>
+      <c r="G160" t="n">
+        <v>5.68432987514711e+23</v>
+      </c>
+      <c r="H160" t="n">
+        <v>196</v>
+      </c>
+      <c r="I160" t="n">
         <v>14</v>
       </c>
     </row>
@@ -12182,7 +12330,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I158"/>
+  <dimension ref="A1:I160"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18043,6 +18191,80 @@
         <v>80</v>
       </c>
       <c r="I158" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="2" t="n">
+        <v>45945.49385416666</v>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>0x00,0x6e</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>0x00,0x50</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F159" t="n">
+        <v>110</v>
+      </c>
+      <c r="G159" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H159" t="n">
+        <v>80</v>
+      </c>
+      <c r="I159" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="2" t="n">
+        <v>45946.49204861111</v>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>0x00,0x6e</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>0x00,0x4F</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F160" t="n">
+        <v>110</v>
+      </c>
+      <c r="G160" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H160" t="n">
+        <v>79</v>
+      </c>
+      <c r="I160" t="n">
         <v>3</v>
       </c>
     </row>
@@ -18057,7 +18279,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I158"/>
+  <dimension ref="A1:I160"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23921,6 +24143,80 @@
         <v>3</v>
       </c>
     </row>
+    <row r="159">
+      <c r="A159" s="2" t="n">
+        <v>45945.49385416666</v>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>0x00,0x6e</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>0xd0,0x97,0x78,0x01,0x00,0x00,0x0e,0x3f,0x0c,0x0c,</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>0x00,0x4C</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F159" t="n">
+        <v>110</v>
+      </c>
+      <c r="G159" t="n">
+        <v>9.85046333984776e+23</v>
+      </c>
+      <c r="H159" t="n">
+        <v>76</v>
+      </c>
+      <c r="I159" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="2" t="n">
+        <v>45946.49204861111</v>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>0x00,0x6e</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>0xd0,0x97,0x78,0x01,0x00,0x00,0x0e,0x3f,0x0c,0x0c,</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>0x00,0x4C</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F160" t="n">
+        <v>110</v>
+      </c>
+      <c r="G160" t="n">
+        <v>9.85046333984776e+23</v>
+      </c>
+      <c r="H160" t="n">
+        <v>76</v>
+      </c>
+      <c r="I160" t="n">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/FE2025May_Database_update.xlsx
+++ b/FE2025May_Database_update.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I160"/>
+  <dimension ref="A1:I161"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6367,6 +6367,43 @@
         <v>192</v>
       </c>
       <c r="I160" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="2" t="n">
+        <v>45947.49324074074</v>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>0x01,0x7c</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>0x00,0xa6,0x46,0x93,0x3c,0x23,0x3f,0x43,0xe8,0xa0,</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>0x00,0xB4</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>0xf</t>
+        </is>
+      </c>
+      <c r="F161" t="n">
+        <v>380</v>
+      </c>
+      <c r="G161" t="n">
+        <v>7.598631275147109e+23</v>
+      </c>
+      <c r="H161" t="n">
+        <v>192</v>
+      </c>
+      <c r="I161" t="n">
         <v>15</v>
       </c>
     </row>
@@ -6381,7 +6418,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I160"/>
+  <dimension ref="A1:I161"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12316,6 +12353,43 @@
         <v>196</v>
       </c>
       <c r="I160" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="2" t="n">
+        <v>45947.49324074074</v>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>0x00,0xa6,0x60,0x33,0x96,0x39,0x62,0xd0,0x5e,0x78,</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>0x00,0xB8</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F161" t="n">
+        <v>400</v>
+      </c>
+      <c r="G161" t="n">
+        <v>5.68432987514711e+23</v>
+      </c>
+      <c r="H161" t="n">
+        <v>192</v>
+      </c>
+      <c r="I161" t="n">
         <v>14</v>
       </c>
     </row>
@@ -12330,7 +12404,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I160"/>
+  <dimension ref="A1:I161"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18265,6 +18339,43 @@
         <v>79</v>
       </c>
       <c r="I160" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="2" t="n">
+        <v>45947.49324074074</v>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>0x00,0x6e</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>0x00,0x4F</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F161" t="n">
+        <v>110</v>
+      </c>
+      <c r="G161" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H161" t="n">
+        <v>79</v>
+      </c>
+      <c r="I161" t="n">
         <v>3</v>
       </c>
     </row>
@@ -18279,7 +18390,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I160"/>
+  <dimension ref="A1:I161"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24217,6 +24328,43 @@
         <v>3</v>
       </c>
     </row>
+    <row r="161">
+      <c r="A161" s="2" t="n">
+        <v>45947.49324074074</v>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>0x00,0x6e</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>0xd0,0x97,0x78,0x01,0x00,0x00,0x0e,0x3f,0x0c,0x0c,</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>0x00,0x4C</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F161" t="n">
+        <v>110</v>
+      </c>
+      <c r="G161" t="n">
+        <v>9.85046333984776e+23</v>
+      </c>
+      <c r="H161" t="n">
+        <v>76</v>
+      </c>
+      <c r="I161" t="n">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/FE2025May_Database_update.xlsx
+++ b/FE2025May_Database_update.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I161"/>
+  <dimension ref="A1:I162"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6404,6 +6404,43 @@
         <v>192</v>
       </c>
       <c r="I161" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="2" t="n">
+        <v>45948.49069444444</v>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>0x01,0x7c</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>0x00,0xa6,0x46,0x93,0x3c,0x23,0x3f,0x43,0xe8,0xa0,</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>0x00,0xB4</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>0xf</t>
+        </is>
+      </c>
+      <c r="F162" t="n">
+        <v>380</v>
+      </c>
+      <c r="G162" t="n">
+        <v>7.598631275147109e+23</v>
+      </c>
+      <c r="H162" t="n">
+        <v>192</v>
+      </c>
+      <c r="I162" t="n">
         <v>15</v>
       </c>
     </row>
@@ -6418,7 +6455,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I161"/>
+  <dimension ref="A1:I162"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12390,6 +12427,43 @@
         <v>192</v>
       </c>
       <c r="I161" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="2" t="n">
+        <v>45948.49069444444</v>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>0x00,0xa6,0x60,0x33,0x96,0x39,0x62,0xd0,0x5e,0x78,</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>0x00,0xB8</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F162" t="n">
+        <v>400</v>
+      </c>
+      <c r="G162" t="n">
+        <v>5.68432987514711e+23</v>
+      </c>
+      <c r="H162" t="n">
+        <v>192</v>
+      </c>
+      <c r="I162" t="n">
         <v>14</v>
       </c>
     </row>
@@ -12404,7 +12478,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I161"/>
+  <dimension ref="A1:I162"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18376,6 +18450,43 @@
         <v>79</v>
       </c>
       <c r="I161" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="2" t="n">
+        <v>45948.49069444444</v>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>0x00,0x6e</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>0x00,0x4F</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F162" t="n">
+        <v>110</v>
+      </c>
+      <c r="G162" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H162" t="n">
+        <v>79</v>
+      </c>
+      <c r="I162" t="n">
         <v>3</v>
       </c>
     </row>
@@ -18390,7 +18501,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I161"/>
+  <dimension ref="A1:I162"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24365,6 +24476,43 @@
         <v>3</v>
       </c>
     </row>
+    <row r="162">
+      <c r="A162" s="2" t="n">
+        <v>45948.49069444444</v>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>0x00,0x6e</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>0xd0,0x97,0x78,0x01,0x00,0x00,0x0e,0x3f,0x0c,0x0c,</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>0x00,0x4B</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F162" t="n">
+        <v>110</v>
+      </c>
+      <c r="G162" t="n">
+        <v>9.85046333984776e+23</v>
+      </c>
+      <c r="H162" t="n">
+        <v>75</v>
+      </c>
+      <c r="I162" t="n">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/FE2025May_Database_update.xlsx
+++ b/FE2025May_Database_update.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I162"/>
+  <dimension ref="A1:I163"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6441,6 +6441,43 @@
         <v>192</v>
       </c>
       <c r="I162" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="2" t="n">
+        <v>45949.49393518519</v>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>0x01,0x7c</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>0x00,0xa6,0x46,0x93,0x3c,0x23,0x3f,0x43,0xe8,0xa0,</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>0x00,0xB4</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>0xf</t>
+        </is>
+      </c>
+      <c r="F163" t="n">
+        <v>380</v>
+      </c>
+      <c r="G163" t="n">
+        <v>7.598631275147109e+23</v>
+      </c>
+      <c r="H163" t="n">
+        <v>192</v>
+      </c>
+      <c r="I163" t="n">
         <v>15</v>
       </c>
     </row>
@@ -6455,7 +6492,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I162"/>
+  <dimension ref="A1:I163"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12464,6 +12501,43 @@
         <v>192</v>
       </c>
       <c r="I162" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="2" t="n">
+        <v>45949.49393518519</v>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>0x00,0xa6,0x60,0x33,0x96,0x39,0x62,0xd0,0x5e,0x78,</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>0x00,0xB4</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F163" t="n">
+        <v>400</v>
+      </c>
+      <c r="G163" t="n">
+        <v>5.68432987514711e+23</v>
+      </c>
+      <c r="H163" t="n">
+        <v>192</v>
+      </c>
+      <c r="I163" t="n">
         <v>14</v>
       </c>
     </row>
@@ -12478,7 +12552,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I162"/>
+  <dimension ref="A1:I163"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18487,6 +18561,43 @@
         <v>79</v>
       </c>
       <c r="I162" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="2" t="n">
+        <v>45949.49393518519</v>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>0x00,0x6e</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>0x00,0x4F</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F163" t="n">
+        <v>110</v>
+      </c>
+      <c r="G163" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H163" t="n">
+        <v>79</v>
+      </c>
+      <c r="I163" t="n">
         <v>3</v>
       </c>
     </row>
@@ -18501,7 +18612,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I162"/>
+  <dimension ref="A1:I163"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24513,6 +24624,43 @@
         <v>3</v>
       </c>
     </row>
+    <row r="163">
+      <c r="A163" s="2" t="n">
+        <v>45949.49393518519</v>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>0x00,0x6e</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>0xd0,0x97,0x78,0x01,0x00,0x00,0x0e,0x3f,0x0c,0x0c,</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>0x00,0x4B</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F163" t="n">
+        <v>110</v>
+      </c>
+      <c r="G163" t="n">
+        <v>9.85046333984776e+23</v>
+      </c>
+      <c r="H163" t="n">
+        <v>75</v>
+      </c>
+      <c r="I163" t="n">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/FE2025May_Database_update.xlsx
+++ b/FE2025May_Database_update.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I163"/>
+  <dimension ref="A1:I164"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6478,6 +6478,43 @@
         <v>192</v>
       </c>
       <c r="I163" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="2" t="n">
+        <v>45950.49521990741</v>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>0x01,0x7c</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>0x00,0xa6,0x46,0x93,0x3c,0x23,0x3f,0x43,0xe8,0xa0,</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>0x00,0xB4</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>0xf</t>
+        </is>
+      </c>
+      <c r="F164" t="n">
+        <v>380</v>
+      </c>
+      <c r="G164" t="n">
+        <v>7.598631275147109e+23</v>
+      </c>
+      <c r="H164" t="n">
+        <v>188</v>
+      </c>
+      <c r="I164" t="n">
         <v>15</v>
       </c>
     </row>
@@ -6492,7 +6529,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I163"/>
+  <dimension ref="A1:I164"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12538,6 +12575,43 @@
         <v>192</v>
       </c>
       <c r="I163" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="2" t="n">
+        <v>45950.49521990741</v>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>0x00,0xa6,0x60,0x33,0x96,0x39,0x62,0xd0,0x5e,0x78,</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>0x00,0xB4</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F164" t="n">
+        <v>400</v>
+      </c>
+      <c r="G164" t="n">
+        <v>5.68432987514711e+23</v>
+      </c>
+      <c r="H164" t="n">
+        <v>188</v>
+      </c>
+      <c r="I164" t="n">
         <v>14</v>
       </c>
     </row>
@@ -12552,7 +12626,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I163"/>
+  <dimension ref="A1:I164"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18598,6 +18672,43 @@
         <v>79</v>
       </c>
       <c r="I163" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="2" t="n">
+        <v>45950.49521990741</v>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>0x00,0x6e</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>0x00,0x4F</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F164" t="n">
+        <v>110</v>
+      </c>
+      <c r="G164" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H164" t="n">
+        <v>79</v>
+      </c>
+      <c r="I164" t="n">
         <v>3</v>
       </c>
     </row>
@@ -18612,7 +18723,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I163"/>
+  <dimension ref="A1:I164"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24661,6 +24772,43 @@
         <v>3</v>
       </c>
     </row>
+    <row r="164">
+      <c r="A164" s="2" t="n">
+        <v>45950.49521990741</v>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>0x00,0x6e</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>0xd0,0x97,0x78,0x01,0x00,0x00,0x0e,0x3f,0x0c,0x0c,</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>0x00,0x4B</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F164" t="n">
+        <v>110</v>
+      </c>
+      <c r="G164" t="n">
+        <v>9.85046333984776e+23</v>
+      </c>
+      <c r="H164" t="n">
+        <v>75</v>
+      </c>
+      <c r="I164" t="n">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/FE2025May_Database_update.xlsx
+++ b/FE2025May_Database_update.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I164"/>
+  <dimension ref="A1:I165"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6515,6 +6515,43 @@
         <v>188</v>
       </c>
       <c r="I164" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="2" t="n">
+        <v>45951.4971875</v>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>0x01,0x7c</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>0x00,0xa6,0x46,0x93,0x3c,0x23,0x3f,0x43,0xe8,0xa0,</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>0x00,0xB0</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>0xf</t>
+        </is>
+      </c>
+      <c r="F165" t="n">
+        <v>380</v>
+      </c>
+      <c r="G165" t="n">
+        <v>7.598631275147109e+23</v>
+      </c>
+      <c r="H165" t="n">
+        <v>188</v>
+      </c>
+      <c r="I165" t="n">
         <v>15</v>
       </c>
     </row>
@@ -6529,7 +6566,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I164"/>
+  <dimension ref="A1:I165"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12612,6 +12649,43 @@
         <v>188</v>
       </c>
       <c r="I164" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="2" t="n">
+        <v>45951.4971875</v>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>0x00,0xa6,0x60,0x33,0x96,0x39,0x62,0xd0,0x5e,0x78,</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>0x00,0xB0</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F165" t="n">
+        <v>400</v>
+      </c>
+      <c r="G165" t="n">
+        <v>5.68432987514711e+23</v>
+      </c>
+      <c r="H165" t="n">
+        <v>188</v>
+      </c>
+      <c r="I165" t="n">
         <v>14</v>
       </c>
     </row>
@@ -12626,7 +12700,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I164"/>
+  <dimension ref="A1:I165"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18709,6 +18783,43 @@
         <v>79</v>
       </c>
       <c r="I164" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="2" t="n">
+        <v>45951.4971875</v>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>0x00,0x6e</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>0x00,0x4E</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F165" t="n">
+        <v>110</v>
+      </c>
+      <c r="G165" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H165" t="n">
+        <v>78</v>
+      </c>
+      <c r="I165" t="n">
         <v>3</v>
       </c>
     </row>
@@ -18723,7 +18834,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I164"/>
+  <dimension ref="A1:I165"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24809,6 +24920,43 @@
         <v>3</v>
       </c>
     </row>
+    <row r="165">
+      <c r="A165" s="2" t="n">
+        <v>45951.4971875</v>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>0x00,0x6e</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>0xd0,0x97,0x78,0x01,0x00,0x00,0x0e,0x3f,0x0c,0x0c,</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>0x00,0x4B</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F165" t="n">
+        <v>110</v>
+      </c>
+      <c r="G165" t="n">
+        <v>9.85046333984776e+23</v>
+      </c>
+      <c r="H165" t="n">
+        <v>75</v>
+      </c>
+      <c r="I165" t="n">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/FE2025May_Database_update.xlsx
+++ b/FE2025May_Database_update.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I165"/>
+  <dimension ref="A1:I166"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6552,6 +6552,43 @@
         <v>188</v>
       </c>
       <c r="I165" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="2" t="n">
+        <v>45952.49559027778</v>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>0x01,0x7c</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>0x00,0xa6,0x46,0x93,0x3c,0x23,0x3f,0x43,0xe8,0xa0,</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>0x00,0xB0</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>0xf</t>
+        </is>
+      </c>
+      <c r="F166" t="n">
+        <v>380</v>
+      </c>
+      <c r="G166" t="n">
+        <v>7.598631275147109e+23</v>
+      </c>
+      <c r="H166" t="n">
+        <v>188</v>
+      </c>
+      <c r="I166" t="n">
         <v>15</v>
       </c>
     </row>
@@ -6566,7 +6603,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I165"/>
+  <dimension ref="A1:I166"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12686,6 +12723,43 @@
         <v>188</v>
       </c>
       <c r="I165" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="2" t="n">
+        <v>45952.49559027778</v>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>0x00,0xa6,0x60,0x33,0x96,0x39,0x62,0xd0,0x5e,0x78,</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>0x00,0xAC</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F166" t="n">
+        <v>400</v>
+      </c>
+      <c r="G166" t="n">
+        <v>5.68432987514711e+23</v>
+      </c>
+      <c r="H166" t="n">
+        <v>188</v>
+      </c>
+      <c r="I166" t="n">
         <v>14</v>
       </c>
     </row>
@@ -12700,7 +12774,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I165"/>
+  <dimension ref="A1:I166"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18820,6 +18894,43 @@
         <v>78</v>
       </c>
       <c r="I165" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="2" t="n">
+        <v>45952.49559027778</v>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>0x00,0x6e</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>0x00,0x4E</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F166" t="n">
+        <v>110</v>
+      </c>
+      <c r="G166" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H166" t="n">
+        <v>78</v>
+      </c>
+      <c r="I166" t="n">
         <v>3</v>
       </c>
     </row>
@@ -18834,7 +18945,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I165"/>
+  <dimension ref="A1:I166"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24957,6 +25068,43 @@
         <v>3</v>
       </c>
     </row>
+    <row r="166">
+      <c r="A166" s="2" t="n">
+        <v>45952.49559027778</v>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>0x00,0x6e</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>0xd0,0x97,0x78,0x01,0x00,0x00,0x0e,0x3f,0x0c,0x0c,</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>0x00,0x4B</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F166" t="n">
+        <v>110</v>
+      </c>
+      <c r="G166" t="n">
+        <v>9.85046333984776e+23</v>
+      </c>
+      <c r="H166" t="n">
+        <v>75</v>
+      </c>
+      <c r="I166" t="n">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/FE2025May_Database_update.xlsx
+++ b/FE2025May_Database_update.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I166"/>
+  <dimension ref="A1:I167"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6589,6 +6589,43 @@
         <v>188</v>
       </c>
       <c r="I166" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="2" t="n">
+        <v>45953.49447916666</v>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>0x01,0x7c</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>0x00,0xa6,0x46,0x93,0x3c,0x23,0x3f,0x43,0xe8,0xa0,</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>0x00,0xB0</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>0xf</t>
+        </is>
+      </c>
+      <c r="F167" t="n">
+        <v>380</v>
+      </c>
+      <c r="G167" t="n">
+        <v>7.598631275147109e+23</v>
+      </c>
+      <c r="H167" t="n">
+        <v>188</v>
+      </c>
+      <c r="I167" t="n">
         <v>15</v>
       </c>
     </row>
@@ -6603,7 +6640,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I166"/>
+  <dimension ref="A1:I167"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12760,6 +12797,43 @@
         <v>188</v>
       </c>
       <c r="I166" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="2" t="n">
+        <v>45953.49447916666</v>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>0x00,0xa6,0x60,0x33,0x96,0x39,0x62,0xd0,0x5e,0x78,</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>0x00,0xAC</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F167" t="n">
+        <v>400</v>
+      </c>
+      <c r="G167" t="n">
+        <v>5.68432987514711e+23</v>
+      </c>
+      <c r="H167" t="n">
+        <v>184</v>
+      </c>
+      <c r="I167" t="n">
         <v>14</v>
       </c>
     </row>
@@ -12774,7 +12848,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I166"/>
+  <dimension ref="A1:I167"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18931,6 +19005,43 @@
         <v>78</v>
       </c>
       <c r="I166" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="2" t="n">
+        <v>45953.49447916666</v>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>0x00,0x6e</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>0x00,0x4E</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F167" t="n">
+        <v>110</v>
+      </c>
+      <c r="G167" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H167" t="n">
+        <v>78</v>
+      </c>
+      <c r="I167" t="n">
         <v>3</v>
       </c>
     </row>
@@ -18945,7 +19056,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I166"/>
+  <dimension ref="A1:I167"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25105,6 +25216,43 @@
         <v>3</v>
       </c>
     </row>
+    <row r="167">
+      <c r="A167" s="2" t="n">
+        <v>45953.49447916666</v>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>0x00,0x6e</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>0xd0,0x97,0x78,0x01,0x00,0x00,0x0e,0x3f,0x0c,0x0c,</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>0x00,0x4A</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F167" t="n">
+        <v>110</v>
+      </c>
+      <c r="G167" t="n">
+        <v>9.85046333984776e+23</v>
+      </c>
+      <c r="H167" t="n">
+        <v>74</v>
+      </c>
+      <c r="I167" t="n">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/FE2025May_Database_update.xlsx
+++ b/FE2025May_Database_update.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I167"/>
+  <dimension ref="A1:I168"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6626,6 +6626,43 @@
         <v>188</v>
       </c>
       <c r="I167" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="2" t="n">
+        <v>45954.49537037037</v>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>0x01,0x7c</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>0x00,0xa6,0x46,0x93,0x3c,0x23,0x3f,0x43,0xe8,0xa0,</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>0x00,0xAC</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>0xf</t>
+        </is>
+      </c>
+      <c r="F168" t="n">
+        <v>380</v>
+      </c>
+      <c r="G168" t="n">
+        <v>7.598631275147109e+23</v>
+      </c>
+      <c r="H168" t="n">
+        <v>184</v>
+      </c>
+      <c r="I168" t="n">
         <v>15</v>
       </c>
     </row>
@@ -6640,7 +6677,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I167"/>
+  <dimension ref="A1:I168"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12834,6 +12871,43 @@
         <v>184</v>
       </c>
       <c r="I167" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="2" t="n">
+        <v>45954.49537037037</v>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>0x00,0xa6,0x60,0x33,0x96,0x39,0x62,0xd0,0x5e,0x78,</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>0x00,0xAC</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F168" t="n">
+        <v>400</v>
+      </c>
+      <c r="G168" t="n">
+        <v>5.68432987514711e+23</v>
+      </c>
+      <c r="H168" t="n">
+        <v>184</v>
+      </c>
+      <c r="I168" t="n">
         <v>14</v>
       </c>
     </row>
@@ -12848,7 +12922,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I167"/>
+  <dimension ref="A1:I168"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19042,6 +19116,43 @@
         <v>78</v>
       </c>
       <c r="I167" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="2" t="n">
+        <v>45954.49537037037</v>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>0x00,0x6e</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>0x00,0x4E</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F168" t="n">
+        <v>110</v>
+      </c>
+      <c r="G168" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H168" t="n">
+        <v>78</v>
+      </c>
+      <c r="I168" t="n">
         <v>3</v>
       </c>
     </row>
@@ -19056,7 +19167,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I167"/>
+  <dimension ref="A1:I168"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25253,6 +25364,43 @@
         <v>3</v>
       </c>
     </row>
+    <row r="168">
+      <c r="A168" s="2" t="n">
+        <v>45954.49537037037</v>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>0x00,0x6e</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>0xd0,0x97,0x78,0x01,0x00,0x00,0x0e,0x3f,0x0c,0x0c,</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>0x00,0x4A</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F168" t="n">
+        <v>110</v>
+      </c>
+      <c r="G168" t="n">
+        <v>9.85046333984776e+23</v>
+      </c>
+      <c r="H168" t="n">
+        <v>74</v>
+      </c>
+      <c r="I168" t="n">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/FE2025May_Database_update.xlsx
+++ b/FE2025May_Database_update.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I168"/>
+  <dimension ref="A1:I169"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6663,6 +6663,43 @@
         <v>184</v>
       </c>
       <c r="I168" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="2" t="n">
+        <v>45955.49471064815</v>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>0x01,0x7c</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>0x00,0xa6,0x46,0x93,0x3c,0x23,0x3f,0x43,0xe8,0xa0,</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>0x00,0xAC</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>0xf</t>
+        </is>
+      </c>
+      <c r="F169" t="n">
+        <v>380</v>
+      </c>
+      <c r="G169" t="n">
+        <v>7.598631275147109e+23</v>
+      </c>
+      <c r="H169" t="n">
+        <v>184</v>
+      </c>
+      <c r="I169" t="n">
         <v>15</v>
       </c>
     </row>
@@ -6677,7 +6714,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I168"/>
+  <dimension ref="A1:I169"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12908,6 +12945,43 @@
         <v>184</v>
       </c>
       <c r="I168" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="2" t="n">
+        <v>45955.49471064815</v>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>0x00,0xa6,0x60,0x33,0x96,0x39,0x62,0xd0,0x5e,0x78,</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>0x00,0xA8</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F169" t="n">
+        <v>400</v>
+      </c>
+      <c r="G169" t="n">
+        <v>5.68432987514711e+23</v>
+      </c>
+      <c r="H169" t="n">
+        <v>180</v>
+      </c>
+      <c r="I169" t="n">
         <v>14</v>
       </c>
     </row>
@@ -12922,7 +12996,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I168"/>
+  <dimension ref="A1:I169"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19153,6 +19227,43 @@
         <v>78</v>
       </c>
       <c r="I168" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="2" t="n">
+        <v>45955.49471064815</v>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>0x00,0x6e</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>0x00,0x4E</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F169" t="n">
+        <v>110</v>
+      </c>
+      <c r="G169" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H169" t="n">
+        <v>78</v>
+      </c>
+      <c r="I169" t="n">
         <v>3</v>
       </c>
     </row>
@@ -19167,7 +19278,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I168"/>
+  <dimension ref="A1:I169"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25401,6 +25512,43 @@
         <v>3</v>
       </c>
     </row>
+    <row r="169">
+      <c r="A169" s="2" t="n">
+        <v>45955.49471064815</v>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>0x00,0x6e</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>0xd0,0x97,0x78,0x01,0x00,0x00,0x0e,0x3f,0x0c,0x0c,</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>0x00,0x49</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F169" t="n">
+        <v>110</v>
+      </c>
+      <c r="G169" t="n">
+        <v>9.85046333984776e+23</v>
+      </c>
+      <c r="H169" t="n">
+        <v>73</v>
+      </c>
+      <c r="I169" t="n">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/FE2025May_Database_update.xlsx
+++ b/FE2025May_Database_update.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I169"/>
+  <dimension ref="A1:I170"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6700,6 +6700,43 @@
         <v>184</v>
       </c>
       <c r="I169" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="2" t="n">
+        <v>45956.49087962963</v>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>0x01,0x7c</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>0x00,0xa6,0x46,0x93,0x3c,0x23,0x3f,0x43,0xe8,0xa0,</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>0x00,0xAC</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>0xf</t>
+        </is>
+      </c>
+      <c r="F170" t="n">
+        <v>380</v>
+      </c>
+      <c r="G170" t="n">
+        <v>7.598631275147109e+23</v>
+      </c>
+      <c r="H170" t="n">
+        <v>184</v>
+      </c>
+      <c r="I170" t="n">
         <v>15</v>
       </c>
     </row>
@@ -6714,7 +6751,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I169"/>
+  <dimension ref="A1:I170"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12982,6 +13019,43 @@
         <v>180</v>
       </c>
       <c r="I169" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="2" t="n">
+        <v>45956.49087962963</v>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>0x00,0xa6,0x60,0x33,0x96,0x39,0x62,0xd0,0x5e,0x78,</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>0x00,0xA8</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F170" t="n">
+        <v>400</v>
+      </c>
+      <c r="G170" t="n">
+        <v>5.68432987514711e+23</v>
+      </c>
+      <c r="H170" t="n">
+        <v>180</v>
+      </c>
+      <c r="I170" t="n">
         <v>14</v>
       </c>
     </row>
@@ -12996,7 +13070,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I169"/>
+  <dimension ref="A1:I170"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19264,6 +19338,43 @@
         <v>78</v>
       </c>
       <c r="I169" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="2" t="n">
+        <v>45956.49087962963</v>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>0x00,0x6e</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>0x00,0x4E</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F170" t="n">
+        <v>110</v>
+      </c>
+      <c r="G170" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H170" t="n">
+        <v>78</v>
+      </c>
+      <c r="I170" t="n">
         <v>3</v>
       </c>
     </row>
@@ -19278,7 +19389,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I169"/>
+  <dimension ref="A1:I170"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25549,6 +25660,43 @@
         <v>3</v>
       </c>
     </row>
+    <row r="170">
+      <c r="A170" s="2" t="n">
+        <v>45956.49087962963</v>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>0x00,0x6e</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>0xd0,0x97,0x78,0x01,0x00,0x00,0x0e,0x3f,0x0c,0x0c,</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>0x00,0x49</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F170" t="n">
+        <v>110</v>
+      </c>
+      <c r="G170" t="n">
+        <v>9.85046333984776e+23</v>
+      </c>
+      <c r="H170" t="n">
+        <v>73</v>
+      </c>
+      <c r="I170" t="n">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/FE2025May_Database_update.xlsx
+++ b/FE2025May_Database_update.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I170"/>
+  <dimension ref="A1:I171"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6737,6 +6737,43 @@
         <v>184</v>
       </c>
       <c r="I170" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="2" t="n">
+        <v>45957.49082175926</v>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>0x01,0x7c</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>0x00,0xa6,0x46,0x93,0x3c,0x23,0x3f,0x43,0xe8,0xa0,</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>0x00,0xA8</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>0xf</t>
+        </is>
+      </c>
+      <c r="F171" t="n">
+        <v>380</v>
+      </c>
+      <c r="G171" t="n">
+        <v>7.598631275147109e+23</v>
+      </c>
+      <c r="H171" t="n">
+        <v>184</v>
+      </c>
+      <c r="I171" t="n">
         <v>15</v>
       </c>
     </row>
@@ -6751,7 +6788,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I170"/>
+  <dimension ref="A1:I171"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13056,6 +13093,43 @@
         <v>180</v>
       </c>
       <c r="I170" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="2" t="n">
+        <v>45957.49082175926</v>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>0x00,0xa6,0x60,0x33,0x96,0x39,0x62,0xd0,0x5e,0x78,</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>0x00,0xA8</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F171" t="n">
+        <v>400</v>
+      </c>
+      <c r="G171" t="n">
+        <v>5.68432987514711e+23</v>
+      </c>
+      <c r="H171" t="n">
+        <v>176</v>
+      </c>
+      <c r="I171" t="n">
         <v>14</v>
       </c>
     </row>
@@ -13070,7 +13144,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I170"/>
+  <dimension ref="A1:I171"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19375,6 +19449,43 @@
         <v>78</v>
       </c>
       <c r="I170" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="2" t="n">
+        <v>45957.49082175926</v>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>0x00,0x6e</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>0x00,0x4D</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F171" t="n">
+        <v>110</v>
+      </c>
+      <c r="G171" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H171" t="n">
+        <v>77</v>
+      </c>
+      <c r="I171" t="n">
         <v>3</v>
       </c>
     </row>
@@ -19389,7 +19500,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I170"/>
+  <dimension ref="A1:I171"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25697,6 +25808,43 @@
         <v>3</v>
       </c>
     </row>
+    <row r="171">
+      <c r="A171" s="2" t="n">
+        <v>45957.49082175926</v>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>0x00,0x6e</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>0xd0,0x97,0x78,0x01,0x00,0x00,0x0e,0x3f,0x0c,0x0c,</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>0x00,0x49</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F171" t="n">
+        <v>110</v>
+      </c>
+      <c r="G171" t="n">
+        <v>9.85046333984776e+23</v>
+      </c>
+      <c r="H171" t="n">
+        <v>73</v>
+      </c>
+      <c r="I171" t="n">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/FE2025May_Database_update.xlsx
+++ b/FE2025May_Database_update.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I171"/>
+  <dimension ref="A1:I172"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6774,6 +6774,43 @@
         <v>184</v>
       </c>
       <c r="I171" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="2" t="n">
+        <v>45958.49336805556</v>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>0x01,0x7c</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>0x00,0xa6,0x46,0x93,0x3c,0x23,0x3f,0x43,0xe8,0xa0,</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>0x00,0xA8</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>0xf</t>
+        </is>
+      </c>
+      <c r="F172" t="n">
+        <v>380</v>
+      </c>
+      <c r="G172" t="n">
+        <v>7.598631275147109e+23</v>
+      </c>
+      <c r="H172" t="n">
+        <v>184</v>
+      </c>
+      <c r="I172" t="n">
         <v>15</v>
       </c>
     </row>
@@ -6788,7 +6825,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I171"/>
+  <dimension ref="A1:I172"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13130,6 +13167,43 @@
         <v>176</v>
       </c>
       <c r="I171" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="2" t="n">
+        <v>45958.49336805556</v>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>0x00,0xa6,0x60,0x33,0x96,0x39,0x62,0xd0,0x5e,0x78,</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>0x00,0xA4</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F172" t="n">
+        <v>400</v>
+      </c>
+      <c r="G172" t="n">
+        <v>5.68432987514711e+23</v>
+      </c>
+      <c r="H172" t="n">
+        <v>176</v>
+      </c>
+      <c r="I172" t="n">
         <v>14</v>
       </c>
     </row>
@@ -13144,7 +13218,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I171"/>
+  <dimension ref="A1:I172"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19486,6 +19560,43 @@
         <v>77</v>
       </c>
       <c r="I171" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="2" t="n">
+        <v>45958.49336805556</v>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>0x00,0x6e</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>0x00,0x4D</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F172" t="n">
+        <v>110</v>
+      </c>
+      <c r="G172" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H172" t="n">
+        <v>77</v>
+      </c>
+      <c r="I172" t="n">
         <v>3</v>
       </c>
     </row>
@@ -19500,7 +19611,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I171"/>
+  <dimension ref="A1:I172"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25845,6 +25956,43 @@
         <v>3</v>
       </c>
     </row>
+    <row r="172">
+      <c r="A172" s="2" t="n">
+        <v>45958.49336805556</v>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>0x00,0x6e</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>0xd0,0x97,0x78,0x01,0x00,0x00,0x0e,0x3f,0x0c,0x0c,</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>0x00,0x48</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F172" t="n">
+        <v>110</v>
+      </c>
+      <c r="G172" t="n">
+        <v>9.85046333984776e+23</v>
+      </c>
+      <c r="H172" t="n">
+        <v>72</v>
+      </c>
+      <c r="I172" t="n">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/FE2025May_Database_update.xlsx
+++ b/FE2025May_Database_update.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I172"/>
+  <dimension ref="A1:I173"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6811,6 +6811,43 @@
         <v>184</v>
       </c>
       <c r="I172" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="2" t="n">
+        <v>45959.490625</v>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>0x01,0x7c</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>0x00,0xa6,0x46,0x93,0x3c,0x23,0x3f,0x43,0xe8,0xa0,</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>0x00,0xA8</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>0xf</t>
+        </is>
+      </c>
+      <c r="F173" t="n">
+        <v>380</v>
+      </c>
+      <c r="G173" t="n">
+        <v>7.598631275147109e+23</v>
+      </c>
+      <c r="H173" t="n">
+        <v>180</v>
+      </c>
+      <c r="I173" t="n">
         <v>15</v>
       </c>
     </row>
@@ -6825,7 +6862,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I172"/>
+  <dimension ref="A1:I173"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13204,6 +13241,43 @@
         <v>176</v>
       </c>
       <c r="I172" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="2" t="n">
+        <v>45959.490625</v>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>0x00,0xa6,0x60,0x33,0x96,0x39,0x62,0xd0,0x5e,0x78,</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>0x00,0xA4</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F173" t="n">
+        <v>400</v>
+      </c>
+      <c r="G173" t="n">
+        <v>5.68432987514711e+23</v>
+      </c>
+      <c r="H173" t="n">
+        <v>176</v>
+      </c>
+      <c r="I173" t="n">
         <v>14</v>
       </c>
     </row>
@@ -13218,7 +13292,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I172"/>
+  <dimension ref="A1:I173"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19597,6 +19671,43 @@
         <v>77</v>
       </c>
       <c r="I172" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="2" t="n">
+        <v>45959.490625</v>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>0x00,0x6e</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>0x00,0x4D</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F173" t="n">
+        <v>110</v>
+      </c>
+      <c r="G173" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H173" t="n">
+        <v>77</v>
+      </c>
+      <c r="I173" t="n">
         <v>3</v>
       </c>
     </row>
@@ -19611,7 +19722,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I172"/>
+  <dimension ref="A1:I173"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25993,6 +26104,43 @@
         <v>3</v>
       </c>
     </row>
+    <row r="173">
+      <c r="A173" s="2" t="n">
+        <v>45959.490625</v>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>0x00,0x6e</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>0xd0,0x97,0x78,0x01,0x00,0x00,0x0e,0x3f,0x0c,0x0c,</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>0x00,0x48</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F173" t="n">
+        <v>110</v>
+      </c>
+      <c r="G173" t="n">
+        <v>9.85046333984776e+23</v>
+      </c>
+      <c r="H173" t="n">
+        <v>72</v>
+      </c>
+      <c r="I173" t="n">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/FE2025May_Database_update.xlsx
+++ b/FE2025May_Database_update.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I173"/>
+  <dimension ref="A1:I174"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6848,6 +6848,43 @@
         <v>180</v>
       </c>
       <c r="I173" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="2" t="n">
+        <v>45960.49430555556</v>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>0x01,0x7c</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>0x00,0xa6,0x46,0x93,0x3c,0x23,0x3f,0x43,0xe8,0xa0,</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>0x00,0xA8</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>0xf</t>
+        </is>
+      </c>
+      <c r="F174" t="n">
+        <v>380</v>
+      </c>
+      <c r="G174" t="n">
+        <v>7.598631275147109e+23</v>
+      </c>
+      <c r="H174" t="n">
+        <v>180</v>
+      </c>
+      <c r="I174" t="n">
         <v>15</v>
       </c>
     </row>
@@ -6862,7 +6899,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I173"/>
+  <dimension ref="A1:I174"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13278,6 +13315,43 @@
         <v>176</v>
       </c>
       <c r="I173" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="2" t="n">
+        <v>45960.49430555556</v>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>0x00,0xa6,0x60,0x33,0x96,0x39,0x62,0xd0,0x5e,0x78,</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>0x00,0xA4</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F174" t="n">
+        <v>400</v>
+      </c>
+      <c r="G174" t="n">
+        <v>5.68432987514711e+23</v>
+      </c>
+      <c r="H174" t="n">
+        <v>172</v>
+      </c>
+      <c r="I174" t="n">
         <v>14</v>
       </c>
     </row>
@@ -13292,7 +13366,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I173"/>
+  <dimension ref="A1:I174"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19708,6 +19782,43 @@
         <v>77</v>
       </c>
       <c r="I173" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="2" t="n">
+        <v>45960.49430555556</v>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>0x00,0x6e</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>0x00,0x4D</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F174" t="n">
+        <v>110</v>
+      </c>
+      <c r="G174" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H174" t="n">
+        <v>77</v>
+      </c>
+      <c r="I174" t="n">
         <v>3</v>
       </c>
     </row>
@@ -19722,7 +19833,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I173"/>
+  <dimension ref="A1:I174"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26141,6 +26252,43 @@
         <v>3</v>
       </c>
     </row>
+    <row r="174">
+      <c r="A174" s="2" t="n">
+        <v>45960.49430555556</v>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>0x00,0x6e</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>0xd0,0x97,0x78,0x01,0x00,0x00,0x0e,0x3f,0x0c,0x0c,</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>0x00,0x48</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F174" t="n">
+        <v>110</v>
+      </c>
+      <c r="G174" t="n">
+        <v>9.85046333984776e+23</v>
+      </c>
+      <c r="H174" t="n">
+        <v>72</v>
+      </c>
+      <c r="I174" t="n">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/FE2025May_Database_update.xlsx
+++ b/FE2025May_Database_update.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I174"/>
+  <dimension ref="A1:I175"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6885,6 +6885,43 @@
         <v>180</v>
       </c>
       <c r="I174" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="2" t="n">
+        <v>45961.49292824074</v>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>0x01,0x7c</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>0x00,0xa6,0x46,0x93,0x3c,0x23,0x3f,0x43,0xe8,0xa0,</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>0x00,0xA4</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>0xf</t>
+        </is>
+      </c>
+      <c r="F175" t="n">
+        <v>380</v>
+      </c>
+      <c r="G175" t="n">
+        <v>7.598631275147109e+23</v>
+      </c>
+      <c r="H175" t="n">
+        <v>180</v>
+      </c>
+      <c r="I175" t="n">
         <v>15</v>
       </c>
     </row>
@@ -6899,7 +6936,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I174"/>
+  <dimension ref="A1:I175"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13352,6 +13389,43 @@
         <v>172</v>
       </c>
       <c r="I174" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="2" t="n">
+        <v>45961.49292824074</v>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>0x00,0xa6,0x60,0x33,0x96,0x39,0x62,0xd0,0x5e,0x78,</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>0x00,0xA0</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F175" t="n">
+        <v>400</v>
+      </c>
+      <c r="G175" t="n">
+        <v>5.68432987514711e+23</v>
+      </c>
+      <c r="H175" t="n">
+        <v>172</v>
+      </c>
+      <c r="I175" t="n">
         <v>14</v>
       </c>
     </row>
@@ -13366,7 +13440,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I174"/>
+  <dimension ref="A1:I175"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19819,6 +19893,43 @@
         <v>77</v>
       </c>
       <c r="I174" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="2" t="n">
+        <v>45961.49292824074</v>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>0x00,0x6e</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>0x00,0x4D</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F175" t="n">
+        <v>110</v>
+      </c>
+      <c r="G175" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H175" t="n">
+        <v>77</v>
+      </c>
+      <c r="I175" t="n">
         <v>3</v>
       </c>
     </row>
@@ -19833,7 +19944,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I174"/>
+  <dimension ref="A1:I175"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26289,6 +26400,43 @@
         <v>3</v>
       </c>
     </row>
+    <row r="175">
+      <c r="A175" s="2" t="n">
+        <v>45961.49292824074</v>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>0x00,0x6e</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>0xd0,0x97,0x78,0x01,0x00,0x00,0x0e,0x3f,0x0c,0x0c,</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>0x00,0x48</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F175" t="n">
+        <v>110</v>
+      </c>
+      <c r="G175" t="n">
+        <v>9.85046333984776e+23</v>
+      </c>
+      <c r="H175" t="n">
+        <v>72</v>
+      </c>
+      <c r="I175" t="n">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/FE2025May_Database_update.xlsx
+++ b/FE2025May_Database_update.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I175"/>
+  <dimension ref="A1:I176"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6922,6 +6922,43 @@
         <v>180</v>
       </c>
       <c r="I175" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="2" t="n">
+        <v>45962.49320601852</v>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>0x01,0x7c</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>0x00,0xa6,0x46,0x93,0x3c,0x23,0x3f,0x43,0xe8,0xa0,</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>0x00,0xA4</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>0xf</t>
+        </is>
+      </c>
+      <c r="F176" t="n">
+        <v>380</v>
+      </c>
+      <c r="G176" t="n">
+        <v>7.598631275147109e+23</v>
+      </c>
+      <c r="H176" t="n">
+        <v>180</v>
+      </c>
+      <c r="I176" t="n">
         <v>15</v>
       </c>
     </row>
@@ -6936,7 +6973,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I175"/>
+  <dimension ref="A1:I176"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13426,6 +13463,43 @@
         <v>172</v>
       </c>
       <c r="I175" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="2" t="n">
+        <v>45962.49320601852</v>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>0x00,0xa6,0x60,0x33,0x96,0x39,0x62,0xd0,0x5e,0x78,</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>0x00,0xA0</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F176" t="n">
+        <v>400</v>
+      </c>
+      <c r="G176" t="n">
+        <v>5.68432987514711e+23</v>
+      </c>
+      <c r="H176" t="n">
+        <v>172</v>
+      </c>
+      <c r="I176" t="n">
         <v>14</v>
       </c>
     </row>
@@ -13440,7 +13514,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I175"/>
+  <dimension ref="A1:I176"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19930,6 +20004,43 @@
         <v>77</v>
       </c>
       <c r="I175" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="2" t="n">
+        <v>45962.49320601852</v>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>0x00,0x6e</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>0x00,0x4C</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F176" t="n">
+        <v>110</v>
+      </c>
+      <c r="G176" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H176" t="n">
+        <v>76</v>
+      </c>
+      <c r="I176" t="n">
         <v>3</v>
       </c>
     </row>
@@ -19944,7 +20055,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I175"/>
+  <dimension ref="A1:I176"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26437,6 +26548,43 @@
         <v>3</v>
       </c>
     </row>
+    <row r="176">
+      <c r="A176" s="2" t="n">
+        <v>45962.49320601852</v>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>0x00,0x6e</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>0xd0,0x97,0x78,0x01,0x00,0x00,0x0e,0x3f,0x0c,0x0c,</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>0x00,0x48</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F176" t="n">
+        <v>110</v>
+      </c>
+      <c r="G176" t="n">
+        <v>9.85046333984776e+23</v>
+      </c>
+      <c r="H176" t="n">
+        <v>72</v>
+      </c>
+      <c r="I176" t="n">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/FE2025May_Database_update.xlsx
+++ b/FE2025May_Database_update.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I176"/>
+  <dimension ref="A1:I177"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6959,6 +6959,43 @@
         <v>180</v>
       </c>
       <c r="I176" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="2" t="n">
+        <v>45963.49408564815</v>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>0x01,0x7c</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>0x00,0xa6,0x46,0x93,0x3c,0x23,0x3f,0x43,0xe8,0xa0,</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>0x00,0xA4</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>0xf</t>
+        </is>
+      </c>
+      <c r="F177" t="n">
+        <v>380</v>
+      </c>
+      <c r="G177" t="n">
+        <v>7.598631275147109e+23</v>
+      </c>
+      <c r="H177" t="n">
+        <v>180</v>
+      </c>
+      <c r="I177" t="n">
         <v>15</v>
       </c>
     </row>
@@ -6973,7 +7010,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I176"/>
+  <dimension ref="A1:I177"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13500,6 +13537,43 @@
         <v>172</v>
       </c>
       <c r="I176" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="2" t="n">
+        <v>45963.49408564815</v>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>0x00,0xa6,0x60,0x33,0x96,0x39,0x62,0xd0,0x5e,0x78,</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>0x00,0xA0</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F177" t="n">
+        <v>400</v>
+      </c>
+      <c r="G177" t="n">
+        <v>5.68432987514711e+23</v>
+      </c>
+      <c r="H177" t="n">
+        <v>168</v>
+      </c>
+      <c r="I177" t="n">
         <v>14</v>
       </c>
     </row>
@@ -13514,7 +13588,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I176"/>
+  <dimension ref="A1:I177"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20041,6 +20115,43 @@
         <v>76</v>
       </c>
       <c r="I176" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="2" t="n">
+        <v>45963.49408564815</v>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>0x00,0x6e</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>0x00,0x4C</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F177" t="n">
+        <v>110</v>
+      </c>
+      <c r="G177" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H177" t="n">
+        <v>76</v>
+      </c>
+      <c r="I177" t="n">
         <v>3</v>
       </c>
     </row>
@@ -20055,7 +20166,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I176"/>
+  <dimension ref="A1:I177"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26585,6 +26696,43 @@
         <v>3</v>
       </c>
     </row>
+    <row r="177">
+      <c r="A177" s="2" t="n">
+        <v>45963.49408564815</v>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>0x00,0x6e</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>0xd0,0x97,0x78,0x01,0x00,0x00,0x0e,0x3f,0x0c,0x0c,</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>0x00,0x47</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F177" t="n">
+        <v>110</v>
+      </c>
+      <c r="G177" t="n">
+        <v>9.85046333984776e+23</v>
+      </c>
+      <c r="H177" t="n">
+        <v>71</v>
+      </c>
+      <c r="I177" t="n">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/FE2025May_Database_update.xlsx
+++ b/FE2025May_Database_update.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I177"/>
+  <dimension ref="A1:I178"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6996,6 +6996,43 @@
         <v>180</v>
       </c>
       <c r="I177" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="2" t="n">
+        <v>45964.49305555555</v>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>0x01,0x7c</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>0x00,0xa6,0x46,0x93,0x3c,0x23,0x3f,0x43,0xe8,0xa0,</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>0x00,0xA0</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>0xf</t>
+        </is>
+      </c>
+      <c r="F178" t="n">
+        <v>380</v>
+      </c>
+      <c r="G178" t="n">
+        <v>7.598631275147109e+23</v>
+      </c>
+      <c r="H178" t="n">
+        <v>180</v>
+      </c>
+      <c r="I178" t="n">
         <v>15</v>
       </c>
     </row>
@@ -7010,7 +7047,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I177"/>
+  <dimension ref="A1:I178"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13574,6 +13611,43 @@
         <v>168</v>
       </c>
       <c r="I177" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="2" t="n">
+        <v>45964.49305555555</v>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>0x00,0xa6,0x60,0x33,0x96,0x39,0x62,0xd0,0x5e,0x78,</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>0x00,0x9C</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F178" t="n">
+        <v>400</v>
+      </c>
+      <c r="G178" t="n">
+        <v>5.68432987514711e+23</v>
+      </c>
+      <c r="H178" t="n">
+        <v>168</v>
+      </c>
+      <c r="I178" t="n">
         <v>14</v>
       </c>
     </row>
@@ -13588,7 +13662,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I177"/>
+  <dimension ref="A1:I178"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20152,6 +20226,43 @@
         <v>76</v>
       </c>
       <c r="I177" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="2" t="n">
+        <v>45964.49305555555</v>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>0x00,0x6e</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>0x00,0x4C</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F178" t="n">
+        <v>110</v>
+      </c>
+      <c r="G178" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H178" t="n">
+        <v>76</v>
+      </c>
+      <c r="I178" t="n">
         <v>3</v>
       </c>
     </row>
@@ -20166,7 +20277,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I177"/>
+  <dimension ref="A1:I178"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26733,6 +26844,43 @@
         <v>3</v>
       </c>
     </row>
+    <row r="178">
+      <c r="A178" s="2" t="n">
+        <v>45964.49305555555</v>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>0x00,0x6e</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>0xd0,0x97,0x78,0x01,0x00,0x00,0x0e,0x3f,0x0c,0x0c,</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>0x00,0x47</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F178" t="n">
+        <v>110</v>
+      </c>
+      <c r="G178" t="n">
+        <v>9.85046333984776e+23</v>
+      </c>
+      <c r="H178" t="n">
+        <v>71</v>
+      </c>
+      <c r="I178" t="n">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/FE2025May_Database_update.xlsx
+++ b/FE2025May_Database_update.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I178"/>
+  <dimension ref="A1:I179"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7033,6 +7033,43 @@
         <v>180</v>
       </c>
       <c r="I178" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="2" t="n">
+        <v>45965.49673611111</v>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>0x01,0x7c</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>0x00,0xa6,0x46,0x93,0x3c,0x23,0x3f,0x43,0xe8,0xa0,</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>0x00,0xA0</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>0xf</t>
+        </is>
+      </c>
+      <c r="F179" t="n">
+        <v>380</v>
+      </c>
+      <c r="G179" t="n">
+        <v>7.598631275147109e+23</v>
+      </c>
+      <c r="H179" t="n">
+        <v>180</v>
+      </c>
+      <c r="I179" t="n">
         <v>15</v>
       </c>
     </row>
@@ -7047,7 +7084,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I178"/>
+  <dimension ref="A1:I179"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13648,6 +13685,43 @@
         <v>168</v>
       </c>
       <c r="I178" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="2" t="n">
+        <v>45965.49673611111</v>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>0x00,0xa6,0x60,0x33,0x96,0x39,0x62,0xd0,0x5e,0x78,</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>0x00,0x9C</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F179" t="n">
+        <v>400</v>
+      </c>
+      <c r="G179" t="n">
+        <v>5.68432987514711e+23</v>
+      </c>
+      <c r="H179" t="n">
+        <v>168</v>
+      </c>
+      <c r="I179" t="n">
         <v>14</v>
       </c>
     </row>
@@ -13662,7 +13736,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I178"/>
+  <dimension ref="A1:I179"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20263,6 +20337,43 @@
         <v>76</v>
       </c>
       <c r="I178" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="2" t="n">
+        <v>45965.49673611111</v>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>0x00,0x6e</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>0x00,0x4C</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F179" t="n">
+        <v>110</v>
+      </c>
+      <c r="G179" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H179" t="n">
+        <v>76</v>
+      </c>
+      <c r="I179" t="n">
         <v>3</v>
       </c>
     </row>
@@ -20277,7 +20388,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I178"/>
+  <dimension ref="A1:I179"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26881,6 +26992,43 @@
         <v>3</v>
       </c>
     </row>
+    <row r="179">
+      <c r="A179" s="2" t="n">
+        <v>45965.49673611111</v>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>0x00,0x6e</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>0xd0,0x97,0x78,0x01,0x00,0x00,0x0e,0x3f,0x0c,0x0c,</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>0x00,0x47</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F179" t="n">
+        <v>110</v>
+      </c>
+      <c r="G179" t="n">
+        <v>9.85046333984776e+23</v>
+      </c>
+      <c r="H179" t="n">
+        <v>71</v>
+      </c>
+      <c r="I179" t="n">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/FE2025May_Database_update.xlsx
+++ b/FE2025May_Database_update.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I179"/>
+  <dimension ref="A1:I180"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7070,6 +7070,43 @@
         <v>180</v>
       </c>
       <c r="I179" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="2" t="n">
+        <v>45966.49140046296</v>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>0x01,0x7c</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>0x00,0xa6,0x46,0x93,0x3c,0x23,0x3f,0x43,0xe8,0xa0,</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>0x00,0xA0</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>0xf</t>
+        </is>
+      </c>
+      <c r="F180" t="n">
+        <v>380</v>
+      </c>
+      <c r="G180" t="n">
+        <v>7.598631275147109e+23</v>
+      </c>
+      <c r="H180" t="n">
+        <v>180</v>
+      </c>
+      <c r="I180" t="n">
         <v>15</v>
       </c>
     </row>
@@ -7084,7 +7121,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I179"/>
+  <dimension ref="A1:I180"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13722,6 +13759,43 @@
         <v>168</v>
       </c>
       <c r="I179" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="2" t="n">
+        <v>45966.49140046296</v>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>0x00,0xa6,0x60,0x33,0x96,0x39,0x62,0xd0,0x5e,0x78,</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>0x00,0x9C</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F180" t="n">
+        <v>400</v>
+      </c>
+      <c r="G180" t="n">
+        <v>5.68432987514711e+23</v>
+      </c>
+      <c r="H180" t="n">
+        <v>164</v>
+      </c>
+      <c r="I180" t="n">
         <v>14</v>
       </c>
     </row>
@@ -13736,7 +13810,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I179"/>
+  <dimension ref="A1:I180"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20374,6 +20448,43 @@
         <v>76</v>
       </c>
       <c r="I179" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="2" t="n">
+        <v>45966.49140046296</v>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>0x00,0x6e</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>0x00,0x4C</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F180" t="n">
+        <v>110</v>
+      </c>
+      <c r="G180" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H180" t="n">
+        <v>76</v>
+      </c>
+      <c r="I180" t="n">
         <v>3</v>
       </c>
     </row>
@@ -20388,7 +20499,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I179"/>
+  <dimension ref="A1:I180"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27029,6 +27140,43 @@
         <v>3</v>
       </c>
     </row>
+    <row r="180">
+      <c r="A180" s="2" t="n">
+        <v>45966.49140046296</v>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>0x00,0x6e</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>0xd0,0x97,0x78,0x01,0x00,0x00,0x0e,0x3f,0x0c,0x0c,</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>0x00,0x47</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F180" t="n">
+        <v>110</v>
+      </c>
+      <c r="G180" t="n">
+        <v>9.85046333984776e+23</v>
+      </c>
+      <c r="H180" t="n">
+        <v>71</v>
+      </c>
+      <c r="I180" t="n">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/FE2025May_Database_update.xlsx
+++ b/FE2025May_Database_update.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I180"/>
+  <dimension ref="A1:I181"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7107,6 +7107,43 @@
         <v>180</v>
       </c>
       <c r="I180" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="2" t="n">
+        <v>45967.49561342593</v>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>0x01,0x7c</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>0x00,0xa6,0x46,0x93,0x3c,0x23,0x3f,0x43,0xe8,0xa0,</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>0x00,0x9C</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>0xf</t>
+        </is>
+      </c>
+      <c r="F181" t="n">
+        <v>380</v>
+      </c>
+      <c r="G181" t="n">
+        <v>7.598631275147109e+23</v>
+      </c>
+      <c r="H181" t="n">
+        <v>180</v>
+      </c>
+      <c r="I181" t="n">
         <v>15</v>
       </c>
     </row>
@@ -7121,7 +7158,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I180"/>
+  <dimension ref="A1:I181"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13796,6 +13833,43 @@
         <v>164</v>
       </c>
       <c r="I180" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="2" t="n">
+        <v>45967.49561342593</v>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>0x00,0xa6,0x60,0x33,0x96,0x39,0x62,0xd0,0x5e,0x78,</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>0x00,0x98</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F181" t="n">
+        <v>400</v>
+      </c>
+      <c r="G181" t="n">
+        <v>5.68432987514711e+23</v>
+      </c>
+      <c r="H181" t="n">
+        <v>164</v>
+      </c>
+      <c r="I181" t="n">
         <v>14</v>
       </c>
     </row>
@@ -13810,7 +13884,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I180"/>
+  <dimension ref="A1:I181"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20485,6 +20559,43 @@
         <v>76</v>
       </c>
       <c r="I180" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="2" t="n">
+        <v>45967.49561342593</v>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>0x00,0x6e</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>0x00,0x4B</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F181" t="n">
+        <v>110</v>
+      </c>
+      <c r="G181" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H181" t="n">
+        <v>75</v>
+      </c>
+      <c r="I181" t="n">
         <v>3</v>
       </c>
     </row>
@@ -20499,7 +20610,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I180"/>
+  <dimension ref="A1:I181"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27177,6 +27288,43 @@
         <v>3</v>
       </c>
     </row>
+    <row r="181">
+      <c r="A181" s="2" t="n">
+        <v>45967.49561342593</v>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>0x00,0x6e</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>0xd0,0x97,0x78,0x01,0x00,0x00,0x0e,0x3f,0x0c,0x0c,</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>0x00,0x46</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F181" t="n">
+        <v>110</v>
+      </c>
+      <c r="G181" t="n">
+        <v>9.85046333984776e+23</v>
+      </c>
+      <c r="H181" t="n">
+        <v>70</v>
+      </c>
+      <c r="I181" t="n">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
